--- a/deuChatbot/research_result/version_1(1500_200).xlsx
+++ b/deuChatbot/research_result/version_1(1500_200).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13650,6 +13650,7039 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 모집단위와 실기종목, 준비물, 실기주제, 화지크기 및 시험시간에 대한 정보를 포함하고 있지만, 종목별 배점이 잘못 기재되어 있습니다. 원본 텍스트에서는 배점이 700점(70%)으로 명시되어 있으나, 생성된 응답에서는 시각디자인, 산업디자인, 공예디자인의 비율이 70%, 15%, 15%로 나뉘어져 있습니다. 이는 원본 정보와 일치하지 않으므로 점수를 낮추었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 여러 요소를 포함하고 있지만, 종목별 배점에 대한 정보가 일관되지 않습니다. 원본 텍스트의 배점 정보와 생성된 응답의 배점 정보가 서로 다르기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 실기시험에 대한 정보를 잘 전달하고 있습니다. 모든 주요 요소가 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 원본과 다르기 때문에 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 대부분의 정보를 정확하게 전달하고 있지만, 종목별 배점에 대한 정보가 잘못되어 있어 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 관련성과 유창성에서 좋은 점수를 받았습니다. 그러나 사실성과 일관성에서 일부 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 일부 정보의 불일치로 인해 완벽한 적합성에는 미치지 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 정보의 불일치로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.872577085457525</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 다음과 같이 구성되어 있습니다:
+1. **모집단위**: 디자인조형학과는 시각디자인, 산업디자인, 공예디자인 세 가지 종목 중 하나를 선택해야 합니다.
+2. **종목별 배점(비율)**:
+   - 시각디자인: 70%
+   - 산업디자인: 15%
+   - 공예디자인: 15%
+3. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+4. **실기주제**: 주제A와 주제B에서 각각 하나를 선택하여 연결된 주제로 작업합니다.
+5. **화지크기**: 켄트지 3절 (A4 크기)
+6. **시간**: 5시간
+7. **주의사항**:
+   - 제공된 사물과 이미지 이외의 형상은 표현하지 마세요.
+   - 제공된 사물은 모두 1회 이상 표현해야 합니다.
+   - 제공된 사물의 색상은 변경하지 마세요.
+이러한 정보를 바탕으로 디자인조형학과의 실기시험을 준비할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기 종목과 준비물, 실기 주제, 화지 크기, 시간에 대한 정보를 포함하고 있지만, "시각디자인, 산업디자인, 공예디자인 중 택1"이라는 내용은 원본 텍스트에 포함되어 있지 않으며, 배점 비율에 대한 정보도 원본에 명시되어 있지 않습니다. 따라서 일부 사실이 왜곡되었거나 추가된 것으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 새로운 정보(시각디자인, 산업디자인, 공예디자인 등)가 추가되어 일관성이 떨어집니다. 원본 텍스트와의 일관성이 부족하여 점수를 낮게 평가했습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 제공하고 있지만, 추가된 정보가 있어 약간의 관련성이 떨어집니다. 그러나 전반적으로 주제와 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 추가된 정보로 인해 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 사실을 포함하고 있지만, 잘못된 정보(시각디자인, 산업디자인, 공예디자인 등)가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 추가된 정보로 인해 약간의 의미 왜곡이 발생했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 표현을 사용하고 있습니다. 다만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.8396172213547107</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인 중 택1이며, 각 종목별 배점 비율은 다음과 같습니다:
+- 기초디자인, 사고의 전환: 700점 (70%)
+준비물:
+- 볼펜
+- 연필
+- 색연필
+- 수채물감 등 표현에 필요한 도구
+실기주제와 화지크기는 다음과 같습니다:
+- 기초디자인: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 잠자리와 저울을 연결하는 주제를 들 수 있습니다.
+- 사고의 전환: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 콜라병과 계절을 연결하는 주제를 들 수 있습니다.
+화지크기와 시간은 다음과 같습니다:
+- 화지 크기: 켄트지3절
+- 시간: 5시간
+이러한 준비물과 주제, 화지 크기 및 시간을 참고하여 실기시험에 임하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 누락된 정보나 잘못된 정보가 없습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미 전달이 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.9828400422676256</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남):
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제를 정확하게 반영하고 있으며, 주제A와 주제B의 예시를 포함하고 있습니다. 그러나 "하나 선택"이라는 표현이 원본의 "각각 1개씩 선정하여"라는 문구와 약간의 차이가 있어 완전한 일치를 이루지 못합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 주제를 설명하고 있으며, 주제의 선택 방식에 대한 설명도 일관성을 유지하고 있습니다. 다만, "하나 선택"이라는 표현이 원본의 의미를 완전히 전달하지 못하는 점에서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 주제와 관련된 모든 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "하나 선택"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제의 선택 과정이 명확하게 설명되어 있습니다. 그러나 약간의 표현 차이로 인해 완전한 일관성을 이루지 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 주제 선택 방식에 대한 설명에서 약간의 차이가 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 표현 차이로 인해 완전한 일치를 이루지 못합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, "하나 선택"이라는 표현이 원본의 의미를 완전히 전달하지 못하는 점에서 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 약간의 표현 차이로 인해 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.7846484411793057</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기 시험에서 사용되는 주제는 다음과 같습니다:
+1. 주제A (예시: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 중 하나 선택)
+2. 주제B (예시: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음 중 하나 선택)
+두 가지 주제를 당일 추첨을 통해 선정하여 연결된 주제로 사용합니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 나군 실기/실적 전형에 대한 추가 정보는 원문에 포함되어 있지 않으므로, 이 부분은 다소 부가적인 정보로 간주될 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 나군 실기/실적 전형에 대한 언급이 추가되어 있어 일관성이 떨어질 수 있습니다. 원문에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있으나, 추가적인 전형에 대한 설명이 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 내용을 다루고 있으며, 출결 점수와 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 나군 실기/실적 전형에 대한 언급이 추가되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 나군 실기/실적 전형에 대한 정보는 원문에 명시되어 있지 않으므로, 이 부분은 정확성에 약간의 영향을 미칠 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 측면에서 좋은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하고 있으며, 추가적인 정보도 적절하게 제공하고 있습니다. 그러나 원문에 없는 정보가 포함되어 있어 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.6806247509518136</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>학생부 교과 전형에서는 직접적인 출결 점수는 반영되지 않습니다. 하지만, 나군 실기/실적(경기실적우수자전형)의 경우 출결 상황이 다음과 같이 반영됩니다:
+- 결석일수 / 반영점수
+  - 0~2일 : 120점
+  - 3~6일 : 90점
+  - 7~12일 : 60점
+  - 13~20일 : 30점
+  - 21일 이상 : 0점
+이는 학생부종합 전형의 일부 요소로 볼 수 있지만, 직접적인 출결 점수는 아닌 것으로 보입니다. 
+따라서 일반적으로 학생부교과 전형에서는 출결 자체가 반영되지 않지만, 실기/실적 위주전형에서 출결이 포함된 총 평점을 통해 간접적으로 영향을 줄 수 있습니다.
+만약 다른 특별한 조건이나 전형에 대한 자세한 정보가 필요하다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 입학처로 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 17명을 명확히 언급하고 있습니다. 추가적인 정보도 제공되어 사실성을 높이고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 따라서 일관성이 매우 높습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 추가 정보를 제공하여 주제와의 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 명확하여 일관된 텍스트로 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.8137351732645007</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다:
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 /
+따라서, 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 원문과 일치하는 정보를 제공합니다. 그러나 "교직"이라는 추가 정보는 원문에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "교직"이라는 정보가 추가되어 있어 일관성이 떨어질 수 있습니다. 원문에 명시된 내용과는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 직접적으로 관련이 있으며, 모집 인원에 대한 정보를 명확하게 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "교직"이라는 단어가 문맥상 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "교직"이라는 추가 정보가 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 모집 인원에 대한 정보는 정확하지만, "교직"이라는 정보는 원문에 포함되어 있지 않아 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받습니다. 그러나 일부 정보의 추가로 인해 점수가 약간 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 대체로 일치하지만, "교직"이라는 추가 정보가 문맥에 맞지 않아 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, "교직"이라는 단어가 추가되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6137073324990187</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 신입생 선발 인원인 22명을 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.7240965531668904</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>22명입니다. 
+의료보건생활대학 간호학과는 나군 일반학생전형으로 모집하며, 해당 모집단위의 최대 선발 가능 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 등급과 점수에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.8748987884864938</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+| 등급 | 점수 |
+|------|------|
+| 1    | 139  |
+| 2    | 131  |
+| 3    | 123  |
+| 4    | 115  |
+| 5    | 107  |
+| 6    | 99   |
+| 7    | 91   |
+| 8    | 83   |
+| 9    | 75   |
+이 표를 참고하면, 영어 등급이 높을수록 더 높은 점수가 부여됩니다.</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 예술고 출신자가 지원할 수 없다는 점을 반복적으로 강조하고 있습니다. 따라서 일관성이 높습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 예술고 학생의 지원 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 따라서 유창성이 높습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.8007797773790797</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과(농어촌학생전형)로 지원할 수 없습니다. 
+[표 추가내용]에 따르면, "예술고 출신자는 지원할 수 없습니다."라고 명시되어 있습니다.
+따라서 예술고 학생이 나군 학생부교과(농어촌학생전형)를 통해 지원하는 것은 불가능합니다. 다른 전형을 탐색하거나, 일반고나 특수목적고 출신으로서 농어촌 지역에서의 교육 및 거주 경력을 갖추는 것이 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 기록과 배점이 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트에 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확한 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 관련 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 적합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.8498730753387489</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>4등급의 제자리 멀리뛰기 여자 기록은 218~221cm이며, 해당 기록에 대한 배점은 275점입니다.
+따라서 레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록과 배점은 다음과 같습니다:
+- 기록: 218~221cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 모든 사실이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 작성되었습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.731368097865101</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과의 출결 반영 비율은 12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 표에서 확인할 수 있습니다. 해당 표에 따르면 경기지도학과의 전형요소 반영 비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(경기실적): 70%
+따라서, 경기지도학과에서 출결이 12%의 비중을 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 보완합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.7029521179169097</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 물리치료학과의 데이터를 통해 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 일정에 대한 정확한 정보를 제공하고 있으며, 날짜와 요일이 일치합니다. 그러나 추가된 정보(대기실 및 입실시간 안내, 실기종목)는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일정과 일치하지만, 추가된 정보가 원본 텍스트와 일관되지 않아서 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본 텍스트와의 연결이 약해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 일정에 대한 정확한 정보를 제공하지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의미를 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.5231180737888265</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 1월 17일(수)에 실시됩니다.
+관련 정보는 다음과 같습니다:
+- **일정**: 2024. 01. 17.(수)
+- **대기실 및 입실시간 안내**: 2024. 01. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능
+이 일정은 디자인조형학과의 시각디자인, 산업디자인, 공예디자인 세 가지 실기종목에 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "수능 최저 학력 기준은 없습니다."라는 원문과 상반된 내용을 포함하고 있습니다. 응답에서는 수능 최저기준이 존재하는 것처럼 언급하고 있으며, 이는 명백한 사실 왜곡입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 정보를 제공합니다. 원문에서 수능 최저기준이 없다고 명시했음에도 불구하고, 응답에서는 수능 최저기준이 필요하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 응답은 수능 반영 영역과 가산점에 대한 정보를 제공하지만, 원문에서 요구하는 수능 최저기준에 대한 질문과는 관련이 적습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있지만, 원문과의 불일치로 인해 논리적 흐름이 약간 손상되었습니다. 정보가 서로 연결되어 있으나, 주제와의 일치가 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 응답은 원문에서 제공된 사실과 완전히 다릅니다. 수능 최저기준이 없다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 응답이 원문과 일치하지 않으며, 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 응답의 의미가 원문과 전혀 일치하지 않으며, 문맥에 맞지 않는 정보를 제공합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4485744367159174</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보가 제공된 표에서 확인할 수 있습니다. 하지만 현재 제공된 데이터는 수능 반영 영역 및 가산점에 대한 정보만 포함되어 있어, 정확한 수능 최저기준 점수를 알기 위해서는 추가적인 정보가 필요합니다.
+제공된 정보를 바탕으로 응용화학과의 수능 반영 영역은 다음과 같습니다:
+``` 
+모집단위 / 수능 반영영역 및 반영비율 / 가산점
+공과대학 / 응용화학과 / { 100% / } /
+```
+이 정보는 응용화학과의 경우 수능 점수가 100% 반영되는 것을 의미합니다. 하지만, 정확한 최저기준 점수를 알기 위해서는 해당 학과의 수능 최저기준 점수표나 추가적인 입학처 공지사항을 참조해야 합니다.
+만약 추가 정보가 필요하다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신설된 학과 목록에서 '미래융합대학'이라는 학과를 추가로 언급하고 있으며, 이는 원본 텍스트에 포함되어 있지 않습니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, '미래융합대학'이라는 새로운 정보를 추가하여 일관성이 떨어집니다. 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신설된 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 신설된 학과에 대한 정보를 명확하게 전달하고 있습니다. 그러나 '미래융합대학'의 언급이 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, '미래융합대학'이라는 잘못된 정보를 포함하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이고 있으며, 일부 강점과 약점이 혼재되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 추가된 정보로 인해 약간의 부적합성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.6839207460021891</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과들은 다음과 같습니다:
+1. 미래융합대학 / 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+2. 상경대학 / 스마트항만물류학과 - 신설
+3. 상경대학 / 창업투자경영학과 - 신설
+위와 같이 3개의 학과가 2024학년도에 신설되었습니다.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있습니다. 서류와 면접의 비율이 정확하게 언급되었으나, "이 비율은 모든 성인학습자전형에서 일괄 적용됩니다."라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 그러나 추가된 정보가 원본에 없기 때문에 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답의 대부분은 정확하지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 보이지만, 일부 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트에 없는 정보가 포함되어 있어 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.8580906861973445</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 : 70%
+- 면접 : 30%
+이 비율은 모든 성인학습자전형에서 일괄 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위와 가산점의 내용을 정확하게 반영하고 있습니다. 그러나 의료·보건·생활대학이 누락되어 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 응답은 공과대학과 ICT융합공과대학에 대한 정보를 제공하지만, 원본 텍스트에 포함된 의료·보건·생활대학에 대한 언급이 없으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 수능 가산점에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 적절합니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다. 그러나 의료·보건·생활대학에 대한 언급이 없어서 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 대부분의 사실을 정확하게 반영하고 있지만, 의료·보건·생활대학에 대한 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 누락된 정보로 인해 완전한 적합성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.8412889159950931</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 공과대학, ICT융합공과대학 모집단위에서 수능 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+관련 정보는 다음과 같습니다:
+- **모집단위**: 공과대학, ICT융합공과대학
+- **가산점 대상**: 수능 수학(미적분 또는 기하) 응시자
+- **가산점 내용**: 수학 취득 표준점수의 10%
+이 정보는 "가산점" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 성적이 100% 반영된다는 사실을 정확하게 전달하고 있지만, "다군 수능(일반학생전형) 전형요소 반영비율"이라는 정보는 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 응답은 원문과 일치하는 부분이 있지만, "다군"이라는 용어 사용이 원문과의 일관성을 떨어뜨립니다. 원문은 "가군"에 대한 내용이므로 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊고, 수능 성적 반영에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 "다군" 언급으로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 대부분 정확하지만, "다군"이라는 용어 사용으로 인해 정확성이 떨어집니다. 원문에서는 "가군"에 대한 내용이므로 이 부분에서 정확성이 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있지만, 일관성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답의 의미는 대체로 적절하지만, "다군"이라는 용어 사용이 원문과의 의미적 일치를 떨어뜨립니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, "다군"이라는 용어로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.8156777355518275</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 전형 요소 중 100%로 반영됩니다. 
+이 정보는 "다군 수능(일반학생전형) 전형요소 반영비율" 표에서 확인할 수 있으며, 해당 표에 따르면 모든 모집단위의 수능 반영 비율은 100%입니다.
+따라서 가군에서도 수능 성적이 최대한 반영되며, 이는 학생들의 수능 점수를 가장 중요한 평가 기준으로 사용한다는 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사 일정에 대한 정보를 제공하고 있지만, 원본 텍스트에 명시된 날짜(2024년 1월 16일) 외에 추가적인 날짜(2024년 1월 17일)가 포함되어 있습니다. 이는 원본 텍스트와의 불일치를 초래합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 가군 실기고사 날짜를 단일하게 언급하고 있지만, 생성된 응답은 두 개의 날짜를 제시하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 실기고사 일정에 대한 추가적인 세부사항을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 날짜와 학과에 대한 정보를 포함하고 있지만, 이로 인해 전체적인 흐름이 다소 어색하게 느껴질 수 있습니다. 원본 텍스트의 단일 날짜 정보와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 추가적인 날짜와 학과 정보를 포함하여 사실과 다르게 표현되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 있으며, 전반적으로 낮은 품질을 보입니다. 사실성, 일관성, 정확성에서 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보로 인해 원본의 의미가 왜곡될 수 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 추가된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.6726913136367854</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 일정이 정해져 있습니다:
+- **레저스포츠학과, 태권도학과**의 실기고사는 **2024. 01. 16.(화)**입니다.
+- **디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과**의 실기고사는 **2024. 01. 17.(수)**입니다.
+이 일정은 입학관리팀에서 제공한 전형일정 표에 따르며, 지원자는 해당 날짜에 대기실 및 입실시간을 확인하여 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다고 언급하고 있지만, "전 모집단위가 해당됩니다"라는 부분은 사실과 다릅니다. 이로 인해 응답의 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 부분이 있으며, 특히 "전 모집단위가 해당됩니다"라는 문구는 원문과 모순됩니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 일부 불필요한 세부사항이 포함되어 있어 주제에서 약간 벗어났습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 다소 복잡하여 논리적인 흐름이 약간 부족합니다. 특히, 추가된 정보가 원문과의 연결이 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답에서 제공된 정보 중 일부는 정확하지 않으며, 원문과의 불일치로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 적절한 부분이 있지만, 원문과의 불일치로 인해 전체적인 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 응답이 다소 복잡하여 이해하기 어려운 부분이 있으며, 명확한 전달이 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.681933471844862</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과를 제외한 전 모집단위가 해당됩니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다. 이 표에 따르면, 나군 수능(일반학생전형)의 경우 전 모집단위가 제시되나, "한의예과(수학(미적분/기하),수학(확률과 통계))"는 한의예과를 포함하여 수학 관련 과목을 선택할 수 있는 모집단위로 표기되어 있습니다. 그러나 일반적으로 나군에서 디자인조형학과, 체육학과, 경기지도학과가 실기/실적 위주로 평가받는다는 점에서 이들 학과는 나군 수능(일반학생전형)에서 제외된 것으로 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉬운 표현으로 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 내용을 쉽게 파악할 수 있도록 잘 설명되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.8518946537431779</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서 수능 최저기준은 적용되지 않습니다. 이는 "전형요소 반영비율" 표에서 확인할 수 있습니다:
+``` 
+수능 위주 / 다군 수능(일반학생전형) 전 모집단위 / 180 / 일괄 합산 / { 0 /  0 /  0 /  0 /  0 /  100 / } / 수능최저기준 없음 /
+```
+수능 최저기준이 "없음"으로 표시되어 있습니다. 이는 모든 모집단위에서 수능 점수가 필요하지만, 최저 기준은 설정되지 않았음을 의미합니다.
+따라서 2024학년도 동의대학교 다군 전형에서는 수능 성적이 요구되지만, 특정한 최저 점수 기준은 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학부에서 학과로 분리된 내용을 정확히 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 서로 모순되는 내용이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미 전달이 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.8231112026873837</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 여러 학과가 학부에서 학과로 분리되었습니다. 주요 내용은 다음과 같습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산투자학과, 부동산개발경영학과
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이러한 분리로 인해 학부의 구조가 변경되었으며, 일부 전공명도 변경되었습니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 원문과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 추가적인 정보도 원문과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주제와 관련된 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에 포함된 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.7438192953960776</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 원서접수 마감일은 **2024년 1월 6일(토) 18시까지**입니다.
+추가 유의사항:
+- 원서접수 사이트 접속이 마감일 18시 정각에 차단되므로, 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.
+- 원서접수 취소나 변경은 마감 시점 이후에는 불가하므로 신중하게 확인 후 접수해주시기 바랍니다.
+자세한 일정은 [입학안내 홈페이지](http://ipsi.deu.ac.kr)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 2024학년도 전형 요소 변화에 대한 정보가 아닌, 수능 위주 전형과 실기/실적 위주 전형에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용과 전혀 일치하지 않으며, 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본의 전형 요소 변화와 관련된 내용이 전혀 반영되지 않았습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교의 전형 요소 변화에 대한 질문에 대한 답변이 아닙니다. 따라서 매우 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관성을 유지하고 있으나, 원본 텍스트와의 관련성이 전혀 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 가장 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 부적절함으로 인해 전체적인 평가에 부정적인 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.67917850087031</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 변경된 전형 요소는 다음과 같습니다:
+1. **수능 위주 전형 (가군, 나군, 다군)**:
+   - 모든 수능 위주의 전형에서는 수능 최저기준이 없어졌습니다.
+2. **실기/실적 위주 전형**:
+   - 실기/실적 위주의 가군과 나군의 일부 모집단위에서 수능 반영 비율이 변경되었습니다. 
+     - 레저스포츠학과, 태권도학과: 수능 30%, 실기 70%
+     - 디자인조형학과, 체육학과: 수능 30%, 실기 70%
+   - 경기지도학과: 출결 18%, 실기 12%, 서류 70%
+이러한 변경사항은 전반적으로 수능의 중요성이 줄어들고, 실기나 면접 등의 비중이 증가하는 추세를 보이고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 실기 비중이 70%라는 사실을 올바르게 전달하고 있습니다. 추가적으로 제공된 표 내용도 원본 정보와 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 서로 충돌하지 않고 일치합니다. 모든 정보가 통합되어 일관된 메시지를 전달합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 실기 비중에 직접적으로 관련된 내용을 포함하고 있으며, 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있어 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.7851075407188814</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 다음과 같은 표에서 얻을 수 있습니다:
+```plaintext
+[표 내용]
+가군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% /  70% / }
+```
+따라서 가군 실기/실적 전형에서 수능은 30%, 실기는 70%의 비중을 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가적인 설명도 원본의 내용과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 세부 전공에 대한 추가적인 설명도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 세부 전공에 대한 설명이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.8282200280235067</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 '라이프융합학부'는 세부 전공으로 다음과 같이 구성되어 있습니다:
+1. 스타트업 창업 투자학 (Start-up and Investment Studies)
+2. 뷰티 비즈니스학 (Beauty Business Studies) 
+3. 라이프 생활 문화학 (Life Culture Studies)
+이 세부 전공들은 학생들이 미래 산업 트렌드와 맞물려 있는 다양한 분야에서의 기회를 탐색하고, 창업과 비즈니스, 그리고 라이프 스타일 관련 분야에 대한 이해를 강화할 수 있도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 '태권도학과'라는 잘못된 정보를 포함하고 있으며, 원본 텍스트에 명시된 '체육학과'를 누락했습니다. 또한 실기고사 날짜에 대한 정보도 원본 텍스트에 포함되어 있지 않으므로 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, '태권도학과'라는 정보는 원본에 없고, '체육학과'는 누락되었습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 참여하는 학과에 대한 정보를 제공하고 있지만, 잘못된 학과 이름이 포함되어 있어 관련성이 떨어집니다. 그러나 실기고사 날짜와 준비 사항에 대한 정보는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나쁘지 않지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨집니다. 원본과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 부분이 많습니다. 특히 잘못된 학과 이름이 포함되어 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.6981561525369188</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과에서는 2024년 1월 16일에 실기고사가 실시됩니다. 지원자는 해당 날짜에 대기실 및 입실 시간을 확인하여 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에 명시된 모든 학과를 포함하지 않고 있습니다. "가군", "나군", "다군"으로 나누어 설명하고 있으나, 원본 텍스트에서는 이러한 구분이 없으므로 일부 정보가 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 학과를 군별로 나누어 설명함으로써 일관성이 떨어집니다. 원본 텍스트는 단순히 지원 가능한 학과 목록을 제공하는 반면, 생성된 응답은 군별로 나누어 설명하여 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기/실적 위주 전형에 지원 가능한 학과에 대한 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 군별로 나누어 설명하는 부분에서 약간의 복잡함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 군별로 나누어 설명하고 있어 논리적인 흐름이 다소 끊기는 느낌이 있습니다. 원본 텍스트의 간단한 목록 형식에 비해 복잡한 구조로 인해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 명시된 모든 학과를 포함하지 않으며, 군별로 나누어 설명함으로써 정보의 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성, 일관성, 정확성에서 부족함이 있어 전반적인 품질이 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 군별로 나누어 설명함으로써 약간의 혼란을 초래할 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 다소 복잡하게 제시되어 있어 이해하기 어려운 부분이 있습니다. 원본 텍스트의 간단한 목록 형식에 비해 이해하기 어려운 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.7248890977011039</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "가군 실기/실적(일반학생전형)"은 다음과 같은 학과에 지원할 수 있습니다:
+- 레저스포츠학과
+- 태권도학과
+또한, "나군 실기/실적(일반학생전형)"에서는 다음 학과가 해당됩니다:
+- 디자인조형학과
+- 체육학과
+"다군 실기/실적(일반학생전형)"에서는 경기지도학과만이 해당됩니다.
+따라서, 실기/실적 위주 전형을 지원하려는 경우, 지원하고자 하는 학과가 위의 목록에 포함되어 있는지 확인하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공을 정확하게 나열하고 있지만, "미래융합대학 인문사회 학부"라는 표현은 원본 텍스트에 없는 정보입니다. 또한, 마지막 문장은 중국어로 되어 있어 한국어 문맥과 맞지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 전공 목록을 포함하고 있지만, "미래융합대학 인문사회 학부"라는 추가 정보는 원본과 일치하지 않으며, 전체적으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 전공 목록이 포함되어 있어 관련성이 높습니다. 그러나 중국어 문장은 주제와 관련이 없으므로 약간의 점수를 깎았습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 중국어 문장이 포함되어 있어 흐름이 약간 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 전반적인 구조는 이해할 수 있지만, 중국어 문장이 포함되어 있어 논리적인 흐름이 깨집니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 전공 목록은 정확하지만, 추가된 정보와 중국어 문장으로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 일관성과 정확성에서 문제가 있어 전반적인 품질이 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답의 일부는 원본 텍스트와 의미적으로 일치하지 않으며, 중국어 문장은 문맥에 맞지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 전반적으로 이해할 수 있지만, 중국어 문장으로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.7749708339381283</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 미래융합대학 인문사회 학부에 있는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+- 스타트업 창업 투자학
+- 뷰티 비즈니스학
+- 라이프 생활 문화학
+这三个专业共同组成了一个名为"Life Fusion Department"的新设学部。</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 잘못 해석하고 있습니다. 응답에서는 일반학생전형에 대한 지원 자격이 부정확하게 설명되어 있으며, 농어촌학생전형에 대한 정보도 잘못 전달되고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 특히, 일반학생전형에 대한 지원 자격에 대한 설명이 원본과 상충합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다. 원본의 핵심 내용을 제대로 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 흐름이 방해받고 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 일관성이 떨어집니다. 원본 텍스트와의 연결이 약해져 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 사실관계에서 여러 가지 오류가 있으며, 원본 텍스트의 내용을 정확하게 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 어느 정도 적절하지만, 잘못된 정보로 인해 원본 텍스트의 의도와 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.5911413401167334</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>你不属于农村或偏远地区，且是特殊目的高中毕业生，因此根据提供的信息，你不符合东义大学农林学生类型（나군 학생부교과(농어촌학생전형)）的申请资格。该类型的招生对象要求是在农村或偏远地区的中学完成全部学业并居住的学生。
+对于一般学生类型（가군, 나군 일반학생전형等），特殊目的高中的毕业生通常不符合申请条件，因为这些类型主要面向普通高中毕业生或其他特定背景的学生。
+建议你查看东义大学官方网站上的详细招生信息，或者直接联系学校的招生办公室以获取更准确的信息。你可以访问以下网站进行查询：https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있습니다. 원본 텍스트는 동의대 나군 전형에서 가장 많이 모집하는 학과가 중어중국학과와 신소재공학과라고 명확히 언급하고 있지만, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트의 핵심 정보를 무시하고 다른 학과의 모집 인원에 대한 정보를 제공하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않고, 관련 없는 정보를 포함하고 있습니다. 원본 텍스트의 주제와는 거리가 있는 내용이 많아 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다. 주제와 관련된 정보가 혼재되어 있어 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않고 있습니다. 원본 텍스트의 핵심 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않는 부분이 많습니다. 원본 텍스트의 질문에 대한 적절한 답변을 제공하지 못하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 혼란스러워서 명확한 이해를 방해합니다. 정보가 잘 정리되지 않아 독자가 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.6591404107644279</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과에 대한 명확한 정보는 제공된 데이터에서 확인할 수 없습니다. 하지만, 제공된 표 중에서 각 학과별로 정원 내 및 정원 외 모집인원을 볼 수 있습니다.
+예를 들어, "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) - 정원외 모집단위 및 모집인원" 표에서 다음과 같은 정보가 있습니다:
+- 상경대학 인문사회 스마트호스피탈리티학과: 7명
+- IT융합부품소재공과대학 공학 미래형자동차학과: 7명
+- ICT공과대학 공학 소프트웨어융합학과: 7명
+이 표에서 가장 많은 모집인원은 각 학과별로 동일하게 7명입니다. 그러나, 정원 내 모집인원에 대한 정보는 제공되지 않았습니다.
+따라서, 현재 제공된 정보만으로는 나군 전형에서 가장 많이 모집하는 학과를 단정적으로 말하기 어렵습니다. 더 자세한 정보가 필요하다면 공식 입학 홈페이지나 대학 관계자에게 문의해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 지원 자격에 대한 정확한 정보를 제공하지 않으며, 원문에서 명시된 '마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다'는 내용을 누락하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 원문에서 언급된 특정 조건을 무시하고 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 지원 자격에 대한 정보를 제공하지만, 원문에서 요구하는 특정 조건을 다루지 않기 때문에 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 관계가 명확하지 않아 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 사실을 정확하게 반영하지 않으며, 중요한 정보를 누락하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 전반적으로 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 관계에서 벗어나기 때문에 중간 정도의 점수를 받습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달됩니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.5331676540142751</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>你不具备申请韩国东义大学学生部课程（农村学生类型）的资格，因为该类型的招生对象要求是来自农村地区中学并完成整个教育过程的学生。而你提到自己是特殊目的高中学生，不符合这个条件。
+具体来说，根据提供的信息：
+- **支持资格**：
+  - 在农村（镇、村）地区的中学完成了整个教育过程。
+  - 中学和高中阶段的居住地包括本人及其父母（特殊情况除外）必须在农村地区。
+- **你的情况**：你是特殊目的高中的学生，这意味着你不符合上述关于完成整个教育过程并居住在农村地区的条件。
+因此，建议你查看其他类型的招生信息或咨询学校以了解是否符合其他类型招生的要求。你可以访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 了解更多详细信息。</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 제공되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 수능 최종등록자 표에 대한 언급은 소프트웨어공학부와 직접적인 관련이 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, 수능 최종등록자 표에 대한 정보는 원본 텍스트에서 언급되지 않은 내용입니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 질문에 대한 적절한 정보를 제공합니다. 특히 웹사이트 주소를 제공하여 추가 정보를 찾을 수 있도록 안내하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 순차적으로 제시되어 있습니다. 그러나 수능 최종등록자 표에 대한 언급이 원본 텍스트와의 연결성을 약간 약화시킵니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 수능 최종등록자 표에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 수능 최종등록자 표에 대한 언급은 다소 맥락에서 벗어난 느낌을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.7484678352497123</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부 합격자의 평균 성적이 직접적으로 나와 있지 않습니다. 
+다만, 수능(일반학생전형) 최종등록자 표에서 다음과 같은 정보가 있습니다:
+- 단과대학: ICT공과대학
+- 모집단위: 소프트웨어융합학과
+이 표에서는 평균 점수와 표준 편차를 제공하지만, 특정 학부(소프트웨어공학부)에 대한 정보는 포함되어 있지 않습니다.
+수능 4개 영역 (국어 + 수학 + 외국어 + 과학)의 평균 점수와 표준 편차를 확인하려면, 해당 학과의 최종등록자 표를 찾아보시거나, 동의대학교 입학처 웹사이트에서 더 자세한 정보를 확인해 보세요.
+웹사이트 주소는 https://ipsi.deu.ac.kr/main.do 입니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 없다는 점을 정확하게 반영하고 있습니다. 그러나 "현재 있는 정보는 다음과 같습니다"라는 부분에서 제공된 정보가 실제로는 명시되지 않았기 때문에 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 전달하고 있습니다. 다만, 추가된 정보가 원본 텍스트에 포함되지 않은 내용이므로 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 추가된 정보가 원본에 포함되지 않은 점에서 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 추가 정보는 원본과의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 문장이 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.6551696189745346</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부 최초합격자의 평균 성적에 대한 데이터가 없습니다. 
+현재 있는 정보는 다음과 같습니다:
+- 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)의 평균 성적 등급이 있습니다.
+- 가군, 나군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원에 대한 정보가 있지만, 특정 학과의 최초합격자 평균 성적이 포함되어 있지 않습니다.
+따라서 정확한 소프트웨어공학부 최초합격자의 평균 성적을 제공하기 위해서는 동일한 형식의 데이터를 가진 표나 관련 정보가 필요합니다. 만약 해당 정보가 있다면, 해당 정보를 공유해주시면 도와드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 구체적인 날짜와 시간에 대한 언급이 부족합니다. 또한, 중국어로 작성된 부분은 원본 텍스트와 관련이 없으며, 이는 사실성을 떨어뜨립니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 원본의 구체적인 발표 일정과는 일치하지 않습니다. 특히, 발표 일정에 대한 구체적인 내용이 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표와 관련된 내용을 다루고 있지만, 원본 텍스트의 구체적인 일정 정보가 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 중국어 부분이 포함되어 있어 한국어 문맥에서 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 구체적인 일정 정보가 누락되어 있어 전체적인 일관성이 떨어집니다. 특히, 중국어 부분이 한국어 문맥과 잘 연결되지 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표에 대한 일반적인 정보를 제공하지만, 구체적인 날짜와 시간에 대한 정확한 정보가 부족합니다. 또한, 중국어로 작성된 부분은 원본 텍스트와 관련이 없습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 구체적인 정보의 부족과 언어 혼합으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표와 관련된 내용을 다루고 있지만, 원본 텍스트의 구체적인 의미와 맥락을 완전히 반영하지 못하고 있습니다. 특히, 중국어 부분은 맥락에 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 중국어 부분이 포함되어 있어 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.6954311804034415</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 최초합격자부터 2차 충원합격자 발표까지는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 조회해야 합니다. 
+具体的来说，合格名单发布如下：
+- 最初的合格者和补充合格者的公布将通过学校网站进行；
+- 所有申请者必须在公布的截止日期内检查自己的合格状态。</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 안내를 하고 있습니다. 원본 텍스트에서 명시된 날짜(2024. 01. 20.)를 언급하지 않아 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 면접 일정에 대한 구체적인 내용을 제공하지 않고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 면접고사에 대한 정보를 제공하려고 하지만, 원본 텍스트의 구체적인 날짜를 언급하지 않아 관련성이 떨어집니다. 그러나 면접고사에 대한 일반적인 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원본 텍스트의 핵심 정보를 놓친 점이 아쉽습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 흐름을 가지고 있지만, 원본 텍스트의 핵심 정보를 반영하지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 면접고사 일정에 대한 구체적인 내용을 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 면접고사에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 의미와 맥락을 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 이해하기 쉬운 문장으로 구성되어 있으나, 핵심 정보가 누락되어 있어 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.422106105555698</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>면접고사에 대한 자세한 일정은 일반적으로 입학처 웹사이트에서 확인할 수 있습니다. 주어진 정보로는 정확한 날짜와 시간이 명시되어 있지 않으므로, "https://ipsi.deu.ac.kr/main.do" 링크를 참조하여 최신 정보를 확인하시기 바랍니다. 입학사정관들이 직접 면접을 진행하며, 면접 일정은 각 모집단위별로 다를 수 있으니 공지사항이나 안내문을 꼭 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실과 완전히 상반되는 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 모순되는 정보를 제공하고 있습니다. 원본 텍스트는 최저학력 기준이 없다고 명시하고 있지만, 생성된 응답은 특정 과목을 요구한다고 주장하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트가 최저학력 기준이 없음을 언급하는 반면, 생성된 응답은 기준이 있다고 잘못된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관성을 가지고 있지만, 원본 텍스트와의 관계에서 비논리적입니다. 원본 텍스트와의 연결이 없기 때문에 일관성 점수가 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 최저학력 기준이 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.5161385700174769</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 한의예과를 신청하려면, 다음과 같은 최저학력 기준을 충족해야 합니다:
+- **수학(미적분/기하) 또는 수학(확률과 통계)** 과목이 필요합니다.
+따라서, 지원자들은 이 두 가지 중 하나의 수학 과목을 반드시 응시해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 명확히 반영하지 않고 있으며, 대신 일반적인 대학의 입학 기준에 대한 정보를 제공하고 있습니다. 이는 원문과의 일치성이 떨어지며, 사실에 대한 정확한 반영이 부족합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 동의대학교에 대한 구체적인 정보를 제공하는 반면, 생성된 응답은 일반적인 대학의 입학 기준에 대한 설명으로 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준에 대한 질문에 대한 직접적인 답변을 제공하지 않지만, 관련된 정보(입학 기준)에 대한 일반적인 설명을 포함하고 있습니다. 그러나 원문에 대한 직접적인 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 원문에 대한 직접적인 답변이 없기 때문에 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확히 반영하지 않으며, 일반적인 입학 기준에 대한 정보로 대체하고 있습니다. 이는 원문의 정확성과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 낮고, 사실성, 일관성, 정확성 모두에서 부족한 점이 있습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하지 않으며, 동의대학교의 수능 최저학력 기준에 대한 질문에 대한 적절한 답변을 제공하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장으로 구성되어 있지만, 원문과의 관련성이 낮아 질문에 대한 이해를 돕지 못합니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.4734574026308989</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到具体的最低录取标准（수능 최저학력 기준）。通常情况下，大学会在其官方网站上发布详细的招生简章和最低录取标准。建议您访问东国大学的官方网站（http://ipsi.deu.ac.kr）查看最新的招生简章或联系学校的招生办公室以获取准确的信息。
+如果您需要了解一般性的信息，可以参考以下几点：
+1. **各专业具体的最低录取分数**：通常会在学校官网上的招生简章中公布。
+2. **科目要求**：不同专业的考试科目和比例可能会有所不同。例如，一些专业可能更看重数学成绩，而另一些则可能更看重英语或文科科目的成绩。
+3. **综合评价因素**：除了成绩外，还可能考虑学生的综合素质、面试表现等。
+为了确保信息的准确性，请直接访问学校官网查询最新的招生政策和要求。</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 주요 정보를 정확하게 반영하고 있습니다. 그러나 "1차 충원 합격자 등록"과 "2차 충원 합격자 등록"에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 발표 일정에 대한 정보는 일치하지만, 추가된 등록 정보는 원본 텍스트에 없으므로 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊습니다. 발표 일정과 관련된 모든 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 각 발표 일정이 잘 정리되어 있어 일관된 흐름을 유지합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답의 대부분은 정확하지만, 원본 텍스트에 없는 등록 정보가 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 부정확성이 있어 완전한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 정보가 적절하게 전달되고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.8515153902725582</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 충원합격자 발표가 시작됩니다. 첫 번째 충원합격자는 2024년 2월 14일(수)에 발표되며, 이후 2차와 3차로 나눠서 발표될 예정입니다.
+발표 일정은 다음과 같습니다:
+- **1차 충원 합격자 발표**: 2024년 2월 14일(수) 09:00
+- **1차 충원 합격자 등록**: 2024년 2월 14일(수) 09:00~16:00
+- **2차 충원 합격자 발표**: 2024년 2월 15일(목) 09:00
+- **2차 충원 합격자 등록**: 2024년 2월 15일(목) 09:00~16:00
+- **3차 이후 충원 합격자 발표 (개별 전화 통보)**: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+모든 지원자는 이 일정에 따라 합격 여부를 확인하고 등록금을 납부해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3차 이후 충원합격자 발표 일정에 대한 정보를 포함하고 있지만, 발표 시간이 2024년 2월 19일(월)까지 지속된다는 내용은 원본 텍스트에 명시되어 있지 않습니다. 또한, 개별 전화 통보에 대한 언급도 원본 텍스트에 포함되어 있지 않아 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일부 일치하지만, 발표 방식(개별 전화 통보)과 발표 시간이 추가된 부분에서 일관성이 떨어집니다. 원본 텍스트의 정보와 완전히 일치하지 않기 때문에 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 충원합격자 발표 일정에 대한 정보를 제공합니다. 그러나 추가된 정보가 원본 텍스트와의 관련성을 약간 떨어뜨립니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정과 관련된 정보가 일관되게 연결되어 있습니다. 그러나 일부 추가 정보가 흐름을 방해할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 발표 방식과 시간에 대한 정보가 정확하지 않아 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 추가된 정보가 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.8178061954891493</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 3차 이후 충원합격자를 발표합니다. 이 발표는 개별 전화 통보를 통해 이루어지며, 발표 시간은 2024년 2월 19일(월)까지 지속됩니다.
+발표 및 등록 일정은 다음과 같습니다:
+- **2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지**: 3차 이후 충원합격자 발표
+- **개별 전화 통보 시 안내**
+지원자는 이 기간 내에 홈페이지를 통해 개별적으로 합격 여부를 확인해야 합니다.
+참고로, 최초합격자 및 1차, 2차 충원합격자의 발표는 홈페이지를 통해 실시되며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 반드시 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 추가모집이 있다는 점을 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가모집에 대한 정보가 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.9786936003639347</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 또한, 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.
+따라서 추가모집은 있습니다.</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌, 다른 전형에 대한 정보를 제공하고 있습니다. 특히, 연령 요구 사항과 평가 기준 등은 원본 텍스트와 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 상충하는 정보가 포함되어 있습니다. 예를 들어, 연령 요구 사항이 언급되었으나 원본 텍스트에는 그러한 내용이 없습니다.
+3. Relevance Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형에 대한 정보가 아닌 다른 전형에 대한 설명을 포함하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1  
+   - 생성된 응답은 사실과 다르며, 원본 텍스트의 정보와는 전혀 다른 내용을 담고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3  
+   - 생성된 응답은 문법적으로는 이해할 수 있으나, 내용이 원본과 관련이 없기 때문에 이해하는 데 어려움이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.544450705698472</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학習者轉型是指針對已經完成高中教育或具有同等學力的成年人進行高等教育的一種招生方式。以下是关于平生学習者转型（平생학습자전형）的一些关键信息：
+1. **适用对象**：适用于已经完成高中教育或具有同等学力的成年人，包括高中的毕业生和通过其他途径获得同等学历的人。
+2. **年龄要求**：通常要求申请者年满30岁及以上，即出生于1994年2月28日之前（具体日期可能因学校而异）。
+3. **招生方式**：
+   - 采用学生综合评价的方式进行选拔。
+   - 包括提交学生成长记录、面试和书面材料评估等环节。
+4. **提交的文件**：需要提交高中学业成绩证明书或同等学历证明，以及个人成长记录等相关材料。具体要求如下：
+   - 高中毕业生或预毕业生需提供高中学生综合评价表1份（如果同意在线提供，则无需提交纸质版）。
+   - 检定考试合格者需提供检定考试合格证书副本、成绩证明书副本等。
+   - 外国高中毕业生或预毕业生需提供经公证的外国高中毕业证书副本和成绩单副本，以及可选的学生综合评价表。
+5. **申请截止日期**：提交文件的截止日期为2024年1月3日（星期三）至1月12日（星期五）17:00前到达为准。
+6. **提交地点**：地址是(邮编: 47340) 韩国釜山市釜山区严光路176号，东国大学招生办公室。
+7. **录取比例和配额**：
+   - 平生学習者转型的录取名额占每年度招生计划的一定比例。
+   - 具体每个专业的录取人数可以在相关表格中查看。
+8. **综合评价标准**：包括共同能力、学业能力和专业适应性三个方面的评估，各部分的具体评分标准和内容在提供的表格中有详细说明。
+9. **面试注意事项**：
+   - 面试时间为每人10分钟以内。
+   - 由两名招生官组成评审小组对考生进行个别评价。
+   - 在面试过程中将使用盲评方式，不透露个人身份信息（如学号、姓名、毕业高中等），并且不允许穿校服。
+如果您有更具体的问题或需要进一步的信息，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 지원 자격에 대한 모든 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.8930790326071508</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자입니다.
+이러한 자격을 갖춘 지원자가 평생학습자전형을 신청할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 포함하고 있지만, 특정 학과의 실기고사 일정에 대한 정보는 원본 텍스트에 명시되어 있지 않습니다. 따라서 일부 정보는 정확하지만, 추가된 내용이 원본과 일치하지 않거나 확인되지 않은 정보로 인해 점수를 낮추었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하여 실기고사에 대한 정보를 제공하고 있으나, 추가된 학과별 일정이 원본 텍스트와 일치하지 않기 때문에 일관성이 떨어집니다. 원본 텍스트의 정보와는 다소 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하며, 원본 텍스트의 주제와 잘 연결되어 있습니다. 실기고사에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 실기고사에 대한 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 점수를 낮추었습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 추가된 학과별 일정이 원본 텍스트에 명시된 내용과 일치하지 않기 때문에 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 사실성과 일관성에서 약간의 문제가 있어 점수를 조정했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본과 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 추가된 정보로 인해 혼란을 줄 수 있는 부분이 있어 점수를 조정했습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.6823666581632357</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 대학에서 지정한 장소로 참가해야 합니다. 각 전형별로 실기고사 일정이 다르므로, 해당 전형의 실기고사 날짜에 맞춰 입시 홈페이지에서 대기실 및 입실 시간을 확인하고, 지정된 장소로 이동하시면 됩니다.
+예를 들어:
+- 레저스포츠학과와 태권도학과의 실기고사는 2024년 1월 16일에 실시되며, 대기실 및 입실 시간은 2024년 1월 12일 오후 2시 이후 입학 안내 홈페이지에서 확인할 수 있습니다.
+- 디자인조형학과와 체육학과의 실기고사는 2024년 1월 17일에 실시되며, 대기실 및 입실 시간은 같은 날 오후 2시 이후 입학 안내 홈페이지에서 확인할 수 있습니다.
+따라서, 정확한 장소와 시간을 미리 확인하고 해당 장소로 이동하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 실기종목과 준비사항, 기타 사항에 대한 내용을 포함하고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 내용이 전혀 반영되지 않았기 때문에 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트의 정보와 생성된 응답의 내용이 상충하므로 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보인데, 생성된 응답은 실기종목과 규칙에 대한 내용으로 전혀 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 맥락에서의 유창성은 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다. 주제가 다르기 때문에 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 핵심 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 전혀 없기 때문에 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않습니다. 주제가 완전히 다르기 때문에 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.3737275943629626</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **실기종목**:
+   - 제자리 멀리뛰기 (240점, 24%)
+   - 메디신볼 던지기 (243점, 23%)
+   - Z-런 (230점, 23%)
+2. **준비사항**:
+   - 운동복 및 운동화를 착용해야 합니다.
+     - 특수화는 불가능하며 신발바닥에 이물질이 가칠 수 없습니다.
+3. **기타 사항**:
+   - 실기 당일 부상 또는 기타 사유로 기권한 자(응급환자 포함)에게는 해당 종목에 최저점수를 부여합니다.
+   - 각 실기종목별 2회 반칙자에게는 최저점수를 부여합니다.
+실기고사는 이러한 준비와 규칙을 준수하여 진행해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 주요 사실을 잘 반영하고 있지만, 전화 연락 두절에 대한 언급은 원문에 포함되어 있지 않은 추가 정보입니다. 따라서 일부 정확성은 유지되지만, 원문과의 일치성에서 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 전화 연락 두절에 대한 언급이 원문에 없는 내용이므로 일관성에서 약간의 문제가 있습니다. 원문은 전화로 개별 연락을 하지 않는다고 명확히 하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 수시 충원합격자 발표에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 전화 연락 두절에 대한 언급이 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 대체로 일치하지만, 추가된 정보가 원문에 없는 내용이므로 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일부 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있지만, 원문에 없는 정보가 포함되어 있어 의미의 일관성이 약간 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.7023906109484154</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 3차 이후 충원합격자를 발표하는 기간 동안, 전화 연락 두절로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서 이 기간 동안에는 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+즉, 수시 충원합격자 발표 시에 별도 개별 연락은 실시하지 않으며, 합격 여부를 확인하기 위해서는 반드시 홈페이지에서 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 2024학년도 모집요강에 대한 정보를 언급하고 있지만, 원본 텍스트는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않다고 명확히 언급하고 있습니다. 따라서, 응답이 일부 사실을 반영하고 있지만, 원본 텍스트의 핵심 사실을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일부분 일치하지만, 2024학년도 모집요강에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트는 2023학년도에 대한 정보가 없다고 명시하고 있으므로, 응답의 내용이 원본과 완전히 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 경찰행정학과와 관련된 정보를 제공하려고 하지만, 원본 텍스트의 주제와는 약간 벗어나 있습니다. 그러나 여전히 관련된 정보를 포함하고 있어 높은 점수를 부여할 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 점수를 주기에는 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실을 완전히 반영하지 못하고 있습니다. 특히, 2024학년도에 대한 언급은 원본 텍스트와의 정확성에서 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 응답의 질이 평균 이상이지만, 사실성과 일관성에서 부족함이 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 약간의 차이가 있어 완전한 적절성을 보장하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 정보를 전달하고 있습니다. 다만, 원본 텍스트와의 연결이 약간 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.7324214944137565</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2024학년도 모집요강에서 경찰행정학과의 관련 정보가 제공되지 않았습니다. 2023학년도의 정확한 경찰행정학과 수시모집 결과에 대한 정보를 찾기 위해서는 동의대학교 입학관리 홈페이지나 교육부 웹사이트 등을 참조하시거나, 직접 동의대학교 입학처에 문의하시는 것이 가장 정확할 것입니다. 제공된 데이터에서 경찰행정학과 관련 내용은 확인되지 않았습니다.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 여러 전형에서 수능을 응시하지 않고도 지원할 수 있다고 주장하고 있으나, 이는 원문과 명백히 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 전혀 없습니다. 원문은 수능 응시가 필수라고 명시하고 있지만, 생성된 응답은 수능 없이 지원 가능한 전형이 있다고 주장하여 서로 상충하는 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있으나, 주된 질문에 대한 답변이 아닌 다른 전형에 대한 정보로 흐르고 있습니다. 원문에서 요구하는 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 원문과의 불일치로 인해 내용의 흐름이 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 그러나 각 전형에 대한 설명은 비교적 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 완전히 반대되는 내용을 포함하고 있습니다. 수능 응시가 필수라는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와 관련된 정보가 아닌 잘못된 정보를 제공합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 불일치로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.4643410025067846</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 정시 모집에서 수능을 응시하지 않고도 지원 가능한 전형이 몇 가지 있습니다. 주요 내용은 다음과 같습니다:
+1. **학생부종합전형**:
+   - 조기취업형 계약학과전형
+   - 성인학습자(정원내/외)전형
+   - 재직자전형
+   - 평생학습자전형
+2. **실기/실적 전형**:
+   - 경기실적우수자전형 (디자인조형학과, 체육학과 제외)
+   - 농어촌학생전형
+이러한 전형들은 주로 수능 성적이 아닌 다른 평가 기준을 통해 학생들을 선발합니다. 예를 들어:
+- **학생부종합전형**은 학생부, 면접 등 다양한 요소를 종합적으로 평가합니다.
+- **실기/실적 전형**은 실기 능력이나 특정 활동 경력을 중심으로 평가합니다.
+하지만 모든 전형이 수능 응시 없이 지원 가능하다는 것은 아닙니다. 일부 전형에서는 수능 성적이 포함될 수 있으므로, 각 전형의 세부 조건을 꼭 확인해야 합니다.
+더 자세한 정보를 원하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 일반적으로 지원할 수 없다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 정시 지원이 가능하다고 명확히 언급하고 있으나, 생성된 응답은 10년 전 졸업생은 지원이 어렵다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주된 질문에 대한 답변이 아닌 다른 전형에 대한 정보로 흐르고 있습니다. 따라서 관련성은 있지만, 주제에서 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 약해 일관된 흐름이 부족합니다. 여러 전형에 대한 설명이 포함되어 있지만, 주제와의 연결이 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 정반대의 내용을 담고 있어 정확성이 매우 낮습니다. 원문에서 명시된 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치가 심각하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 부적절한 주장을 포함하고 있어 적절성이 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.696305527787495</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>10년 전에 고등학교를 졸업했다면, 일반적으로 정시 모집에서는 지원할 수 없습니다. 대학의 정시 모집은 주로 고등학교 졸업 예정자 또는 해당 연도에 졸업한 자들을 대상으로 합니다.
+하지만 다음과 같은 특별한 경우를 제외하고는 10년 전 졸업생은 지원이 어렵습니다:
+1. **평생학습자전형**: 일부 대학에서는 평생학습자전형을 통해 고등학교 졸업 후 오랜 시간 동안 학업을 중단한 사람들을 대상으로 합니다.
+2. **성인학습자전형**: 이는 만 30세 이상의 성인 재직자를 대상으로 하는 경우가 많습니다.
+3. **특수한 상황**: 예를 들어, 장기 병가로 인해 학업을 중단한 후 다시 입학하고 싶은 경우 등 특별한 사유가 있는 경우에는 지원이 가능할 수 있습니다.
+따라서, 정시 모집으로는 지원하기 어렵습니다. 대신 위에서 언급된 특별전형이나 기타 재입학 프로그램을 찾아보시는 것이 좋겠습니다. 자세한 내용은 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다.
+더 궁금하신 점이 있으시면 https://ipsi.deu.ac.kr/main.do 를 참조하시거나, 직접 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.8273751096217573</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 정시 모집의 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화요일)
+   - 입학 안내 홈페이지에서 공고가 발표됩니다.
+2. **원서 접수 (인터넷)**: 2024년 1월 3일 (수요일) ~ 2024년 1월 6일 (토요일) 마감일 18시까지
+   - 원서 접수는 동의대학교 입학관리 홈페이지 또는 UWAY APPLY를 통해 진행됩니다.
+3. **서류 제출**: 2024년 1월 3일 (수요일) ~ 2024년 1월 12일 (금요일) 마감일 17시까지 도착
+   - 서류 제출 대상은 각 전형별 세부 안내를 참조해야 합니다. 접수 사이트에서 우편 발송용 표지를 출력하여 부착한 후 제출하거나 우편으로 보내야 합니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화요일)
+   - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금요일) 14시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수요일)
+   - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금요일) 14시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**:
+   - **최초 합격자 발표**: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024년 2월 2일 (금요일) 14시
+     - 홈페이지에서 개별 조회 가능하며 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+   - **최초 합격자 등록**: 2024년 2월 7일 (수요일) ~ 2024년 2월 13일 (화요일) (은행 마감 시간 내)
+     - 홈페이지에서 개별 조회 가능하며 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+   - **충원 합격자 발표 및 등록**:
+     - **1차 충원 합격자 발표**: 2024년 2월 14일 (수요일) 9시
+       - 홈페이지에서 개별 조회 가능하며 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - **1차 충원 합격자 등록**: 2024년 2월 14일 (수요일) 9시 ~ 16시
+       - 홈페이지에서 개별 조회 가능하며 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - **2차 충원 합격자 발표**: 2024년 2월 15일 (목요일) 9시
+       - 홈페이지에서 개별 조회 가능하며 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - **2차 충원 합격자 등록**: 2024년 2월 15일 (목요일) 9시 ~ 16시
+       - 홈페이지에서 개별 조회 가능하며 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - **3차 이후 충원 합격자 발표**: 2024년 2월 15일 (목요일) 19시 ~ 2024년 2월 20일 (화요일) 18시까지
+       - 홈페이지에서 개별 조회 가능하며 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - **3차 이후 충원 합격자 등록**: 개별 전화 통보 시 안내
+7. **등록금 납부**:
+   - 지정된 은행에 등록금을 내야 합니다.
+8. **환불 신청 기간**: 2024년 2월 14일 (수요일) ~ 2024년 2월 20일 (화요일) 12시까지
+9. **등록 포기 및 등록금 환불**:
+   - 타 대학에 충원합격 통보를 받은 경우 즉시 우리대학에 등록 포기 의사를 전달해야 합니다.
+   - 등록 포기 및 등록금 환불 신청 완료 후에는 번복할 수 없습니다.
+이 일정을 준수하여 지원하시면 됩니다. 만약 자세한 내용이나 추가 질문이 있으시다면, 동의대학교 입학 안내 홈페이지를 참조하거나 관계부서에 문의해 주세요.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.8346634909749193</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화요일)
+   - 입학 안내 홈페이지에서 공고가 발표됩니다.
+2. **원서 접수 (인터넷)**: 2024년 1월 3일 (수요일) ~ 2024년 1월 6일 (토요일) 마감일 18시까지
+   - 원서 접수는 인터넷을 통해 진행되며, 접수 마감 시간은 각각의 모집단위별로 다르지 않습니다.
+3. **서류 제출**: 2024년 1월 3일 (수요일) ~ 2024년 1월 12일 (금요일) 마감일 17시까지 도착
+   - 서류 제출 대상은 각 모집단위별로 다르며, 제출 방법은 접수 사이트에서 우편 발송용 표지를 출력하여 부착하거나 직접 우편으로 보내는 방식입니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화요일)
+   - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금요일) 오후 14시 이후 입학 안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수요일)
+   - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금요일) 오후 14시 이후 입학 안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024년 2월 2일 (금요일) 오후 14시
+     - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+   - 최초 합격자 등록: 2024년 2월 7일 (수요일) ~ 2024년 2월 13일 (화요일) (은행 마감 시간 내)
+     - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+   - 충원 합격자 발표 및 등록: 
+     - 2024년 2월 14일 (수요일) 9시 ~ 16시
+       - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - 2024년 2월 15일 (목요일) 9시 ~ 16시
+       - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+7. **합격자 발표 및 등록금 납부 (충원 합격자 3차 이후)**: 
+   - 2024년 2월 15일 (목요일) 19시 ~ 2024년 2월 20일 (화요일) 18시까지
+     - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+이 일정은 각 모집단위에 따라 약간의 차이가 있을 수 있으므로, 정확한 정보를 얻기 위해서는 동의대학교 입학 안내 홈페이지를 확인하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 완전히 무시하고 있으며, 수능 미응시자도 지원 가능한 전형을 나열하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있어 일관성이 전혀 없습니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 여러 전형에서 수능 점수가 필요하지 않다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 대한 답변을 시도하고 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원문에서 요구하는 정보와는 전혀 다른 내용을 담고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형을 나열하고 있지만, 원문과의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 그러나 각 전형에 대한 설명은 일관되게 구성되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 명시된 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 수능 미응시자가 지원할 수 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.6676822634821759</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **실기/실적(경기실적우수자전형)**:
+   - 이 전형에서는 수능 점수가 필요하지 않습니다.
+   - 대신 경기 실적 증명서를 제출해야 합니다.
+2. **학생부교과(농어촌학생전형)**:
+   - 이 전형에서도 수능 점수가 필요하지 않습니다.
+   - 학생부 교과 성적을 기반으로 평가됩니다.
+3. **학생부종합(평생학습자전형), (성인학습자(정원내·외)전형), (재직자전형)**:
+   - 이 전형에서도 수능 점수가 필요하지 않습니다.
+   - 학생부 교과 성적, 재직 경력 등 다양한 요소를 종합적으로 평가합니다.
+이러한 전형들은 수능 점수 외에도 다른 기준을 통해 지원자를 평가하므로, 수능 미응시자도 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격에 대한 정보와 관련된 사실을 왜곡하고 있습니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있으며, 전년도 충원 합격이 36명까지 이루어졌다고 언급하고 있습니다. 그러나 생성된 응답은 2024년 전형 일정에 대한 정보를 제공하며, 1차와 2차 충원 합격에 대한 구체적인 날짜를 제시하고 있습니다. 이는 원문과 상충하는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 1차와 2차 충원 합격에 대한 구체적인 정보를 제공하고 있습니다. 이는 서로 모순되는 내용입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 원문에서 제공하는 정보와는 다르게 2024년 전형 일정에 대한 세부사항을 포함하고 있습니다. 원문에서 요구하는 정보와는 거리가 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 연결이 부족하여 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 논리적인 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있으며, 전년도 충원 합격이 36명까지 이루어졌다고 언급하고 있습니다. 그러나 생성된 응답은 이러한 사실을 무시하고 새로운 정보를 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 원문과의 관계가 전혀 없으며, 제공된 정보가 부정확합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 제공하는 정보가 원문과 상충하여 의미적으로 적절하지 않습니다. 원문에서 요구하는 정보와는 다르게 새로운 정보를 제시하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽습니다. 그러나 원문과의 관련성이 떨어지기 때문에 전체적인 이해도가 낮아질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.5487772360538515</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2024년 전형 일정을 보면, 전자공학과의 충원 합격은 다음과 같이 진행됩니다:
+1. **1차 충원 합격 발표 및 등록**: 
+   - **발표일**: 2024년 2월 14일(수) 09:00
+   - **등록기간**: 2024년 2월 14일(수) 09:00 ~ 16:00
+2. **2차 충원 합격 발표 및 등록**:
+   - **발표일**: 2024년 2월 15일(목) 09:00
+   - **등록기간**: 2024년 2월 15일(목) 09:00 ~ 16:00
+따라서 전자공학과의 충원 합격은 최대 2차까지 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 연락처가 명시되어 있지 않다고 주장하고 있지만, 원본 텍스트에는 명확하게 연락처가 제공되어 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트에서 제공된 정보와는 전혀 일치하지 않으며, 서로 모순되는 정보를 제시하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 입학처의 연락처를 찾는 방법에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 정보인 연락처를 직접적으로 다루지 않고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 원본 텍스트와의 연결이 약해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하지 못하고 있으며, 일부 정보는 부적절하게 해석되고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.6461161771387682</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 입학처의 연락처는 명시되어 있지 않습니다. 지원자 유의사항이나 기타 표들에서는 특정한 연락처가 언급되지 않았습니다.
+만약 동의대학교 입학처의 전화번호를 찾으시려면, 공식 웹사이트의 '연락처'나 '문의하기' 섹션을 확인하시거나, 제공된 문구 중에서 "(주)유웨이어플라이 : 1588-8988(http://www.uwayapply.com)"라는 정보가 있습니다. 이는 원서접수 대행업체의 연락처로 보입니다.
+공식 입학처의 전화번호를 확인하려면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 주소에 접속하여 공지사항이나 문의하기 섹션을 확인하시거나, 직접 웹사이트의 연락처 정보를 찾아보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화 실패 횟수를 두 번으로 잘못 언급하고 있습니다. 원본 텍스트에서는 3회 통화 시도 후 연락이 두절된 경우에 대해 설명하고 있으며, 이로 인해 등록 의사가 없는 것으로 간주된다고 명시하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 전화 통화 실패 횟수에 대한 정보가 다릅니다. 원본에서는 3회 통화 시도 후 연락이 두절된 경우를 언급하고 있으나, 생성된 응답에서는 두 번 실패한 경우로 잘못 기술되어 있습니다. 이로 인해 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 충원합격자와 전화 통화에 대한 정보가 관련성이 높습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 따르고 있습니다. 그러나 전화 통화 실패 횟수에 대한 오류로 인해 약간의 일관성이 떨어지므로 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화 실패 횟수에 대한 잘못된 정보를 포함하고 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 정확성에서의 오류로 인해 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미를 잘 전달하고 있으나, 전화 통화 실패 횟수에 대한 오류로 인해 약간의 부적절함이 있습니다. 따라서 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.8923526922562219</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>3차 이후의 충원합격자가 전화 통화 두 번 실패한 경우, 해당 지원자는 등록 포기자로 간주됩니다. 이는 표에서 다음과 같이 명시되어 있습니다:
+"3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의하시기 바랍니다."
+따라서, 3차 이후 충원합격자가 전화 통화 두 번 실패하면 등록하지 않아도 등록 포기자로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 필요한 서류와 조건을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서류 목록과 조건이 일치합니다. 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 자연스러운 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.7405673763407918</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 농어촌학생전형 지원을 위한 주요 서류는 다음과 같습니다:
+### 6년 과정 (중·고등학교에서 전 교육과정을 이수한 자로서 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌(읍·면)지역에 거주한 자)
+1. **지원자 본인의 가족관계증명서** 1부
+2. **지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)**
+3. **중학교 학교생활기록부** 1부
+4. **고등학교 학교생활기록부** 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+5. **부모가 사망한 경우 추가 서류**
+   - 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부를 추가로 제출)
+6. **부모가 이혼한 경우 추가 서류**
+   - 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부
+   - 본인의 기본증명서(상세) 1부
+### 12년 과정 (부모의 거주지와는 상관없이 지원자 본인이 초·중·고등학교 전 과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자)
+1. **지원자 본인의 주민등록초본** 1부
+2. **초등학교 학교생활기록부** 1부
+3. **중학교 학교생활기록부** 1부
+4. **고등학교 학교생활기록부** 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류들은 주민등록초본, 가족관계증명서 등은 반드시 주민등록번호 전체가 기재되어 있어야 하며, 학교생활기록부는 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류 목록을 정확하게 나열하고 있으며, 원본 텍스트의 주요 내용을 잘 반영하고 있습니다. 그러나 '6년과정' 서류 제출 가능성에 대한 언급은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일치하지만, '6년과정' 서류 제출 가능성에 대한 추가 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 제출해야 할 서류에 대한 정보를 직접적으로 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며 읽기 쉽게 작성되었습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 '6년과정'에 대한 언급이 원본과 다르기 때문에 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, '6년과정' 서류 제출 가능성에 대한 정보는 원본 텍스트에 포함되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 부정확성으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본과 일치하지 않으므로 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.8320449371362519</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야 하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류는 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.
+추가로 주의해야 할 점은 중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자라면 '6년과정' 서류제출이 가능하다는 것입니다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있으며, 저소득층 학생에 대한 특별 전형이 있는지에 대한 불확실성을 언급하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 명시된 기회균등 전형의 부재와 일치하지 않으며, 저소득층 학생에 대한 특별 전형이 있을 수 있다는 모호한 주장을 하고 있습니다. 이는 원문과의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 있지만, 기회균등 전형의 부재에 대한 명확한 언급이 부족하여 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 관계가 명확하지 않아 일관성이 떨어집니다. 기회균등 전형의 부재에 대한 언급이 부족하여 전체적인 일관성이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충되는 내용을 포함하고 있어 정확성이 낮습니다. 기회균등 전형이 존재하지 않는다는 사실을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 기회균등 전형의 부재에 대한 명확한 언급이 없어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.5231946283757553</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有明确提到在普通定期招生（정시모집）中是否会招收低收入机会均等类型的学生。因此，根据现有信息无法确定是否会有针对低收入家庭学生的特殊招生计划。
+如果您需要了解这方面的详细信息，建议直接访问东国大学的官方网站 (https://ipsi.deu.ac.kr/main.do) 查看最新的招生简章或联系学校的招生办公室获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않다는 원문 내용을 왜곡하고 있습니다. 원문에서는 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 2.5등급이 3등급으로 반올림된다고 주장하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 반올림에 대한 구체적인 내용을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저등급과 관련된 내용을 다루고 있지만, 원문에서 요청한 정보와는 다소 거리가 있습니다. 원문은 절사 여부에 대한 정보를 요청하고 있으나, 생성된 응답은 반올림에 대한 정보로 초점을 맞추고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 관계가 명확하지 않아 일관된 흐름이 부족합니다. 원문에서 요구하는 정보와 생성된 응답의 내용이 잘 연결되지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 잘못된 정보를 포함하고 있습니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있으나, 생성된 응답은 반올림에 대한 잘못된 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받고 있습니다. 원문과의 관계가 명확하지 않으며, 잘못된 정보를 포함하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서 요구하는 정보와는 다른 내용을 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 관계가 불명확하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.61219582651517</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2.5등급은 소수점 셋째자리에서 절사하여 반올림합니다. 따라서 수능 사탐 2과목 평균산출 시 2.5등급은 3등급으로 반올림됩니다.
+이에 대한 추가 정보를 확인하기 위해 다음과 같은 내용을 참고할 수 있습니다:
+- [표 추가내용]에서 "등급 평균 산출 시 소수점 셋째자리에서 절사 처리합니다."라고 명시되어 있습니다. 이는 2.5등급이 3등급으로 반올림되는 것을 의미합니다.
+따라서, 수능 사탐 2과목의 평균 등급이 2.5가 나온다면 실제로는 3등급으로 처리됩니다.</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 방법에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 충원 합격자 발표에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 충원 합격자 발표에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.7301870705292104</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교에서 정시 충원 합격자 발표는 3차까지 이루어집니다. 
+1. **1차 충원 합격자 발표**: 2024년 2월 14일(수) 09:00
+2. **2차 충원 합격자 발표**: 2024년 2월 15일(목) 09:00
+3. **3차 이후 충원 합격자 발표 (개별 전화 통보)**: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+이러한 충원 합격자 발표는 모두 홈페이지를 통해 이루어집니다. 지원자는 이 기간 내에 자신의 합격 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 점수 4.6이 높은 점수라는 사실을 언급하고 있으며, 추가 합격 가능성을 결정하기 위한 여러 요소를 제시하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 점수와 비교하는 구체적인 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 수능 점수와 관련된 요소들을 잘 설명하고 있습니다. 다만, 원본 텍스트의 평균 점수와의 직접적인 비교가 부족하여 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 합격 가능성에 대한 정보를 잘 다루고 있습니다. 모든 요소가 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 점수와 관련된 여러 요소를 정확하게 설명하고 있지만, 원본 텍스트의 평균 점수와의 비교가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 사실성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.6169356261113754</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>4.6이라는 수능 점수는 상당히 높은 점수입니다. 그러나 정시 전형으로 e비즈니스학과에 추가로 합격 가능한지 결정하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **모집인원 및 지원자 수**: 각 모집단위의 모집인원과 지원자의 수를 확인해야 합니다. 만약 모집인원이 많고 지원자가 적다면, 높은 점수라도 합격 가능성은 높아질 것입니다.
+2. **전형요소 반영비율**: e비즈니스학과의 전형요소 반영비율을 확인해야 합니다. 일반적으로 수능 성적이 주요한 비중을 차지하므로, 4.6이라는 점수는 좋은 기반이 될 것입니다.
+3. **전형별 성적 산출방법**: e비즈니스학과의 전형별 성적 산출 방법을 확인해야 합니다. 예를 들어, 수능 성적이 주요한 비중을 차지한다면 4.6이라는 점수는 큰 장점이 될 것입니다.
+4. **기타 요인**: 학업역량, 공동체역량 등 다른 전형요소도 고려해야 합니다. 하지만 수능 성적이 높다면 이들 요소가 부족하더라도 어느 정도 균형을 맞출 수 있을 것입니다.
+5. **최종합격 점수 분포**: 과거의 합격자들의 최종합격 점수를 확인하여, 4.6이라는 점수가 어느 위치에 있는지 파악해야 합니다. 만약 이 점수가 평균 이상이라면 추가로 합격 가능성은 높아질 것입니다.
+따라서, 정확한 답변을 위해서는 e비즈니스학과의 모집인원, 지원자 수, 전형요소 반영비율 등을 확인해야 합니다. 이 정보를 바탕으로 판단하면 더 정확한 결론을 도출할 수 있을 것입니다. 
+추가로 필요한 정보가 있다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트에서 해당 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 모집인원, 경쟁률, 성적 평균에 대한 정보를 제공하고 있으며, 정시 등급 5.3에 대한 해석도 적절합니다. 그러나 일부 정보는 예시로 제시되어 있어 정확한 수치가 아닐 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 경쟁률과 성적 평균에 대한 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 주된 내용과는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, e비즈니스학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 추가되어 있어 원본 텍스트와의 연결이 약해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과에 대한 정보와 정시 등급 5.3에 대한 해석이 적절하지만, 일부 수치가 예시로 제시되어 있어 정확성이 다소 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 정보의 정확성에 대한 의문이 남아 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 일부 예시 정보가 포함되어 있어 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.5927556028550423</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 e비즈니스학과의 모집인원과 지원 인원, 경쟁률을 고려하여 정확한 최초합격 가능성을 예측하기는 어렵습니다. 하지만 다음과 같은 정보를 바탕으로 분석해볼 수 있습니다:
+1. **모집인원**: e비즈니스학과는 30명을 모집합니다.
+2. **경쟁률**: e비즈니스학과의 경쟁률은 매우 높을 가능성이 큽니다. 이전년도와 비교해보면, 경쟁률이 15:1에서 20:1까지 다양하게 나타났습니다 (예시).
+3. **성적 평균**: e비즈니스학과의 수능 성적이 높은 편입니다. 예를 들어, 국어, 수학, 영어 등급이 각각 5.0 이상일 경우가 많았습니다.
+4. **등급 5.3**: 등급 5.3은 좋은 성적을 보여줍니다. 이는 대략 표준점수로 90점대 중반에서 100점대 초반의 수능 점수를 의미합니다 (예시).
+이러한 정보를 종합하면, e비즈니스학과에 최초 합격 가능성은 있습니다만, 경쟁률이 매우 높기 때문에 확실하지 않습니다. 등급 5.3은 좋은 성적일 수 있지만, 다른 지원자들의 성적이 더 뛰어나다면 낮아질 수 있습니다.
+추가적으로, 면접 성적과 서류 평가 결과도 중요한 요소이므로, 이 부분에서도 우수한 성적을 보여줄 필요가 있습니다. 또한, 지원동기와 학업계획, 전공적합성 등 면접에서 좋은 인상을 줄 수 있도록 준비하는 것이 중요합니다.
+결론적으로, 최초합격 가능성은 있지만 높지 않을 가능성이 큽니다. 경쟁률이 매우 높고, 다른 지원자들의 성적이 우수할 경우 낮아질 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성이 낮다는 점을 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 "38점"이라는 점수에 대한 언급은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주장을 일관되게 반영하고 있으며, 예비 38번의 합격 가능성이 낮다는 점에서 일치합니다. 다만, 추가적인 요소들을 고려해야 한다는 점에서 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 예비 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있지만, "38점"이라는 구체적인 점수 언급이 원본에 없으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 약간의 부정확성이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, "38점"이라는 점수 언급이 원본에 없으므로 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.6451189998519578</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>38점은 현재의 점수로는 e비즈니스학과에 예비합격하기에는 낮은 점수입니다. e비즈니스학과의 수능 최저 합격 점수가 보통 높기 때문입니다.
+하지만, 정확한 예비합격 가능성 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. 모집단위와 전형방법: 어떤 전형방법으로 지원했는지 확인하세요. 일반학생전형이나 실기/실적 전형 등에 따라 점수 기준이 다릅니다.
+2. 수능 영역별 점수: 국어, 수학, 영어 등 각 과목의 성적이 중요합니다. 특히 수학과 영어는 e비즈니스학과에서 중요한 역할을 합니다.
+3. 모집인원 및 지원자 수: 해당 학과의 모집인원과 지원자의 수에 따라 경쟁률이 달라질 수 있습니다.
+4. 다른 전형방법의 점수: 실기/실적 전형 등 다른 방법으로도 지원 가능하다면, 그 점수를 고려해보세요.
+5. 추가 평가 요소: 면접이나 서류평가에서 좋은 성적이 나올 경우에도 도움이 될 수 있습니다.
+현재의 38점만으로는 낮은 확률로 예비합격이 가능할 수 있지만, 더 높은 점수를 얻거나 다른 전형방법을 통해 지원하는 것이 좋습니다. 정확한 정보를 얻기 위해서는 대학 입학처 웹사이트나 학교 관계자에게 문의하시는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 관련된 정보를 제공하고 있으며, 3.44의 성적이 합격 가능성에 미치는 영향을 설명하고 있습니다. 그러나 "일반적으로 3.5 이상의 성적이 요구되곤 한다"는 부분은 명확한 출처가 없으므로 약간의 불확실성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 3.44의 성적이 간호학과에 합격하기 어려울 수 있다는 점을 잘 반영하고 있습니다. 다만, 성적 기준에 대한 추가적인 정보가 원본 텍스트에 명시되어 있지 않으므로 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성을 높이기 위한 여러 요소를 제시하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 따라서 일관성이 매우 높습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 성적 기준에 대한 정보는 명확한 출처가 없으므로 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 정보의 출처가 불확실하여 전반적인 품질이 약간 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.514113366175844</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과의 모집요강을 고려할 때, 합격 가능성을 높이기 위해서는 몇 가지 요소를 주의해야 합니다:
+1. **성적 기준**: 동의대학교 간호학과의 경우, 일반적으로 3.5 이상의 성적이 요구되곤 합니다. 따라서 3.44는 약간 낮은 편입니다.
+2. **전형 방식**: 이 학과는 주로 학생부와 면접을 중점적으로 평가합니다. 따라서 성적 외에도 다른 요소들이 중요하게 작용할 수 있습니다.
+3. **면접 및 서류평가**: 면접에서 좋은 인상을 줄 수 있고, 서류를 통해 자신의 열정과 적합성을 잘 보여줄 수 있다면 합격 가능성은 높아질 수 있습니다.
+4. **추천서와 활동 경력**: 추천서나 관련 활동 경력을 잘 준비한다면 이점이 될 수 있습니다.
+5. **동점자 처리 기준**: 동점자가 발생할 경우, 면접 성적과 서류 평가에서 높은 점수를 받는 것이 유리합니다.
+따라서 3.44의 성적만으로는 확실한 합격을 보장하기 어렵지만, 성적 외의 요소들을 잘 준비한다면 합격 가능성은 있습니다. 추천서 작성과 면접 준비에 충분히 신경 쓰시고, 서류를 철저하게 준비하는 것이 중요합니다.
+추가적으로, 동의대학교 입학 홈페이지나 입학처와 상담을 통해 최신 정보와 더 구체적인 조언을 받는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 잘못 해석하고 있습니다. 원문에서는 정시 등급이 2.52일 경우 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 이 점수가 평균보다 낮다고 잘못 판단하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 2.52의 성적이 평균보다 높다고 말하는 반면, 생성된 응답은 이 성적이 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 합격 점수에 대한 정보를 제공하지만, 원문에서 제시된 핵심 정보와는 다소 동떨어져 있습니다. 원문은 정시 등급에 대한 질문에 대한 직접적인 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결성이 부족하여 일관된 흐름이 떨어집니다. 원문에서 제시된 정보와의 연관성이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 원문에서 2.52의 성적이 합격 가능성이 높다고 했으나, 생성된 응답은 이를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받고 있습니다. 원문과의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서의 의미를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 내용의 정확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.6674372505930357</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 최종합격 점수를 확인해보겠습니다.
+간호학과의 경우, 표에서 제공된 정보에 따르면:
+- 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 481.70입니다.
+- 표준 편차는 6.87입니다.
+현재 제시된 성적이 2.52이므로, 이 점수는 평균보다 상당히 낮습니다. 간호학과의 최저합격선은 약 481.70점으로 보이며, 현재 성적 2.52점은 충분하지 않습니다.
+따라서, 현재 성적이 2.52인 경우 동의대학교 간호학과에 최종 합격하기는 어렵다고 판단됩니다. 하지만 정확한 결과를 확인하려면, 실제 수능 점수와 가산점을 포함하여 평균을 계산해야 합니다.
+추가적으로, 동등한 학력 소지자나 다른 전형(예: 실기/실적 위주전형 등)을 통해 지원할 수도 있습니다. 또한, 간호학과의 모집인원이 초과될 경우 충원합격자가 발생할 수 있으므로, 이 점도 고려해볼 만합니다.
+추가 정보나 자세한 상담이 필요하시다면 동의대학교 입학관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 포함하고 있으며, 3.7의 성적이 낮은 가능성을 언급하고 있습니다. 그러나, "합격 가능성이 낮습니다"라는 주장은 다소 일반적이며, 구체적인 수치나 기준을 제시하지 않아 약간의 정보 부족이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 간호학과의 평균 등급과 관련된 정보를 잘 반영하고 있습니다. 다만, 추가적인 정보가 포함되어 있어 약간의 일관성 저하가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 입학 요건과 관련된 여러 요소를 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 간호학과의 평균 등급과 관련된 정보를 정확하게 반영하고 있지만, 구체적인 수치나 기준이 부족하여 완전한 정확성에는 다소 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 약간의 정보 부족이 아쉬운 점입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.6029279029549511</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7의 성적은 간호학과의 모집요강을 고려해야 합니다. 간호학과는 보통 높은 점수를 요구하기 때문에, 정시 성적이 3.7이라면 합격 가능성은 낮습니다.
+간호학과의 입학 요건을 확인하려면 다음과 같은 정보를 찾아보세요:
+1. **정시 모집요강**: 간호학과의 정시 모집요강을 확인하세요. 특히 수능 최저학력기준이나 학생부 평가 기준 등을 살펴보세요.
+2. **학생부 평가 기준**: 일부 대학은 학생부를 중요하게 평가하기 때문에, 지원자의 학업역량과 전공적합성 등이 중요한 요소일 수 있습니다.
+3. **면접 및 실기 평가**: 간호학과는 종종 면접이나 실기를 포함한 추가 평가를 진행하므로, 이 부분도 준비해야 합니다.
+4. **경쟁률**: 현재의 경쟁률을 확인하여 합격 가능성을 판단하세요. 경쟁률이 높다면 낮은 성적로 합격하기는 어렵습니다.
+5. **추천서 및 자소서**: 일부 대학에서는 추천서나 자기소개서를 요구할 수 있으므로, 이 부분도 준비해두세요.
+만약 3.7의 성적이 간호학과에 충분하지 않다고 판단된다면, 다른 전형이나 학과를 고려해보는 것이 좋습니다. 예를 들어:
+- **학생부 종합전형**: 학생부 평가가 강조되는 전형을 시도해볼 수 있습니다.
+- **재직자전형**: 경력이 있는 경우 재직자전형을 고려해 볼 수 있습니다.
+또한, 대학의 입학처 웹사이트나 전화로 상세히 문의를 하시면 더 정확한 정보를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하지만, 수능 성적이 2.58일 경우 합격 가능성이 낮다는 주장은 다소 과장된 것으로 보입니다. 원문에서는 2.58이 평균 등급보다 높다고 언급하고 있어, 이 점에서 사실과의 일치성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하는 정보를 제공하지만, 수능 성적이 2.58일 경우 합격 가능성이 낮다는 주장은 원문과 상충합니다. 원문에서는 2.58이 평균보다 높은 성적이라고 하였으므로, 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 전형에 대한 정보를 제공하며, 질문의 주제와 관련이 있습니다. 그러나 일부 정보는 질문에 대한 직접적인 답변이 아닌 추가적인 정보로 보입니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 일부 정보가 질문에 대한 직접적인 답변과는 거리가 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적에 대한 정보가 정확하지 않으며, 원문과의 일치성이 부족합니다. 특히 합격 가능성에 대한 판단이 원문과 상충합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 일부 정보가 질문의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.6185668777337892</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집요강을 보면, 간호학과는 주로 수능 성적과 학생부 교과성적을 종합적으로 평가합니다. 그러나 정확한 합격 가능성을 판단하기 위해서는 다음과 같은 정보들이 필요합니다:
+1. **수능 성적**: 2024년 동의대학교 간호학과의 수능 최저학력기준은 공개되어 있지 않지만, 일반적으로 간호학과는 높은 수능 점수가 요구됩니다.
+2. **학생부 교과성적**: 학생부 교과성적은 12과목 중 석차등급 상위 8과목을 반영하며, 특히 과학교육과 사회교육 등 간호학과와 관련된 교과 성적이 중요합니다.
+3. **진로선택과목**: 간호학과는 진로선택과목 중 최대 2과목까지 반영할 수 있습니다.
+4. **전형별 특성**: 정시 전형은 주로 수능 점수와 학생부 교과성적을 종합적으로 평가하므로, 수능 성적이 2.58이라면 합격 가능성은 낮을 것으로 예상됩니다. 하지만 최저학력기준이 공개되지 않았으므로, 정확한 판단을 위해서는 동의대학교 입학처 웹사이트나 전화로 확인하는 것이 좋습니다.
+**추천 사항:**
+- **수능 점수 향상**: 수능 점수를 높이는 방법을 고려해보세요. 추가 학습이나 과외 등을 통해 성적을 향상시키는 것이 중요합니다.
+- **학생부 교과성적 강화**: 진로와 관련된 교과 성적이 좋게 나오도록 노력하세요. 특히 과학교육, 사회교육 등 간호학과와 관련된 교과 성적을 높이는 것이 도움이 될 수 있습니다.
+**결론:**
+수능 점수가 2.58이라면 정시 전형으로 간호학과에 합격하기는 어렵다고 볼 수 있지만, 최저학력기준이 공개되지 않았으므로 확실한 판단을 위해서는 동의대학교 입학처 웹사이트나 전화로 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비번호 7번에 대한 정보를 제공하지만, 예비 7번이 충원합격 가능성이 낮다는 원본 텍스트의 핵심 사실을 명확히 반영하지 않고 있습니다. 충원 과정에 대한 설명은 포함되어 있으나, 예비번호에 대한 가능성에 대한 언급이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 예비번호 7번의 충원합격 가능성에 대한 정보가 모호하여 일관성이 떨어집니다. 원본 텍스트는 예비 7번의 가능성이 낮다고 명시하고 있으나, 생성된 응답은 이를 명확히 반영하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비번호 7번과 관련된 정보를 제공하고 있으며, 충원 과정에 대한 주의사항도 포함되어 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 충원합격 가능성에 대한 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 예비번호 7번의 가능성에 대한 명확한 언급이 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 충원 과정에 대한 정보를 제공하지만, 예비번호 7번의 충원합격 가능성에 대한 원본 텍스트의 사실을 정확히 반영하지 않고 있습니다. 이로 인해 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적합한 의미를 전달하고 있습니다. 그러나 예비번호 7번의 가능성에 대한 명확한 언급이 부족하여 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.6811246568380126</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 수시모집에서 게임공학과의 경우, 예비번호 7번이 주어졌습니다. 이는 최종 합격자 발표 이후 충원 과정에서 사용될 예정입니다.
+현재로서는 정식 합격자는 아니지만, 다음 단계인 충원 과정에 참여하실 수 있습니다. 만약 충원 과정에서 합격이 결정되면 게임공학과에 입학할 수 있습니다.
+주의사항:
+1. 2024년 2월 15일(목)부터 20일(화)까지 전화 통신을 통해 충원 결과를 확인해야 합니다.
+2. 지정된 등록 기간 내에 등록금을 납부해야 합니다.
+만약 이 기간 동안 통신이 되지 않거나, 등록금을 납부하지 않는 경우 합격 취소될 수 있으니 주의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 4.16에 대한 해석과 동의대학교 게임공학과의 모집요강에 대한 정보를 제공하고 있습니다. 그러나 "4.16이라는 점수는 상대적으로 낮은 수준입니다."라는 주장은 다소 주관적이며, 원문에서 제공된 평균 등급과 비교할 때 명확한 근거가 부족합니다. 따라서 일부 사실적 정확성은 있지만, 완전한 정확성은 아닙니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 합격 가능성에 대한 정보와 일치하지만, "4.16이라는 점수는 상대적으로 낮은 수준입니다."라는 주장은 원문에서 제공된 평균 등급과의 비교가 부족하여 일관성이 떨어집니다. 원문에서는 4.16이 평균보다 높은 성적이라고 언급하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다룬 주제와 관련이 깊으며, 수능 성적과 동의대학교 게임공학과의 합격 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, "4.16이라는 점수는 상대적으로 낮은 수준입니다."라는 주장은 원문과의 비교에서 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, 일부 주관적인 해석이 포함되어 있어 완전한 의미적 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.608378593497044</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 표준점수로 보이는데, 동의대학교 게임공학과의 모집요강과 전형방법을 고려할 때, 이 점수가 어느 정도인지 파악해야 합니다.
+1. **모집요강 확인**: 동의대학교 게임공학과의 정시 일반학생전형에서 수능 성적 반영 비율은 100%입니다. 따라서 수능 성적이 핵심적인 평가 요소가 됩니다.
+2. **경쟁률 및 지원자 분포**: 동의대학교 게임공학과는 인기 있는 전공 중 하나로, 경쟁률이 높을 가능성이 큽니다. 4.16이라는 점수는 상대적으로 낮은 수준입니다.
+일반적으로:
+- **최저합격선** 근처의 성적이라면, 최소한 30위권 내에서 지원해야 합니다.
+- **추가 합격 확률**: 4.16이라는 점수로는 상위 20~30위권을 목표로 해야 하며, 이 범위 안에서는 추가 합격 가능성이 있습니다.
+따라서:
+- **최소 1번**의 추가 합격 가능성은 있습니다.
+- **추가적으로 2~3번**까지는 가능하지만 확실한 보장은 아닙니다. 
+정확한 예측을 위해서는 동의대학교 게임공학과의 최신 모집요강, 이전 년도의 입시 결과, 지원자의 전체 성적 분포 등을 참고해야 합니다.
+추가적으로:
+- **면접 및 서류 평가**: 수능 점수 외에도 면접이나 서류 평가에서 좋은 성적을 받는 것이 중요합니다.
+- **전공 적합성**: 지원자가 게임공학과에 대한 열정과 전공 적합성을 잘 보여줄 수 있어야 합니다.
+따라서, 4.16이라는 점수로는 최소한 1번 이상의 추가 합격 가능성은 있지만, 확실한 보장은 아닙니다. 꾸준히 준비하고, 면접 및 서류 평가에서도 좋은 성적을 받도록 노력하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 수능 4개 영역 등급 평균(3.88)과 영어 등급 평균(2.88)에 대한 구체적인 언급이 부족합니다. 또한, 학생부교과 전형에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 학생부교과 전형에 대한 정보는 원본 텍스트와 일치하지 않으며, 경영정보학과의 평균 등급에 대한 정보가 다르게 제시되고 있습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 입학 전형과 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 정시 등급과 최초등록자 가능성에 대한 직접적인 언급이 부족합니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 점수와 기준에 대한 설명이 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 입학 전형에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교할 때 정확성이 떨어집니다. 특히, 평균 등급에 대한 정보가 다르게 제시되고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 추가되어 있어 원본의 의도와 다소 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.6537609035671186</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과의 경우, 정시모집군 &lt;나&gt;에 속하며, 해당 모집단위의 학생부교과 전형을 사용합니다. 학생부교과 전형에서는 주로 국어, 수학, 영어, 사회(역사/도덕 포함) 등 4개 과목의 성적을 반영합니다.
+주요 점수와 평균 기준은 다음과 같습니다:
+- **국어**: 3.75
+- **수학**: 3.75 (이 경우 고급 수학 또는 관련 과목)
+- **영어**: 3.75 이상의 성적을 보유하고 있어야 합니다.
+- **사회(역사/도덕 포함)**: 3.75 이상
+평균 기준 점수는 학교별로 다를 수 있지만, 일반적으로 3.75 이상의 성적이 필요합니다.
+**경쟁률과 모집인원**: 경영정보학과의 정시모집군 &lt;나&gt;의 모집인원은 공개되지 않았습니다만, 경쟁률이 높을 가능성이 있습니다. 따라서 최초합격자로 선발되기 위해서는 다음과 같은 점수와 성적을 갖추어야 합니다.
+**결론**: 국어, 수학, 영어, 사회(역사/도덕 포함) 등 4개 과목에서 평균 3.75 이상의 성적이 있다면, 최초등록자로 선발될 가능성이 있습니다. 그러나 경쟁률이 높아서 실제 합격 여부는 확실하지 않습니다.
+**추가 조언**: 
+- 지원자의 전체 성적과 교과성적을 꼼꼼히 확인하세요.
+- 모집인원과 경쟁률을 확인하여 현실적인 기대치를 설정하세요.
+- 기타 전형 요소(면접 등)에서도 좋은 평가를 받는 것이 중요합니다.
+자세한 정보는 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하고 있으며, 4.2라는 점수에 대한 합격 가능성을 논의하고 있습니다. 그러나 원본 텍스트에서 명시된 평균 등급보다 낮은 성적이라는 점을 명확히 언급하지 않고, 여러 조건을 제시하여 가능성을 논의하는 방식으로 다소 모호하게 표현되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 여러 요소를 고려해야 한다고 언급하지만, 원본 텍스트의 결론인 "합격 가능성이 낮다"는 점을 명확히 반영하지 않고 있습니다. 따라서 일관성이 다소 떨어진다고 평가할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 여러 요소를 다루고 있으며, 4.2라는 점수에 대한 합격 가능성을 평가하는 데 필요한 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있어 4점으로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 요소를 체계적으로 나열하고 있으며, 논리적인 흐름을 유지하고 있습니다. 그러나 각 요소 간의 연결이 다소 약할 수 있어 4점으로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 여러 조건을 제시하고 있지만, 원본의 결론을 명확히 반영하지 않아 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 원본의 결론을 명확히 반영하지 않아 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있어 4점으로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.686203941240495</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>4.2라는 점수만으로는 경영정보학과의 최초합격 가능성에 대한 확답을 내리기 어렵습니다. 하지만 몇 가지 정보를 바탕으로 판단해볼 수 있습니다.
+1. **모집인원 및 지원자 수**: 경쟁률이 어느 정도인지 확인해야 합니다. 경쟁률이 높다면, 4.2라는 점수로는 합격하기 어려울 가능성이 큽니다.
+2. **점수 분포**: 해당 모집단위의 최고점과 평균점수를 알아보면, 4.2가 어느 수준인지 판단할 수 있습니다. 예를 들어, 만약 평균점수가 4.5 이상이라면 4.2는 상대적으로 낮은 점수일 것입니다.
+3. **등급 변환**: 수능 등급을 표준변환점수로 변환하여 비교하면 더 정확한 판단이 가능합니다. 예를 들어, 4.2가 어떤 등급인지 확인하고, 해당 등급으로는 합격 가능성은 어느 정도인지를 알아볼 수 있습니다.
+4. **전형요소**: 경영정보학과의 전형요소 중 실기/실적 부분이나 면접 등의 요소를 고려해야 합니다. 만약 이들 요소가 중요하다면, 서류평가나 면접에서 좋은 평가를 받는 것이 합격 가능성에 도움이 될 수 있습니다.
+5. **모집단위 특성**: 경영정보학과의 모집단위 특성을 고려해야 합니다. 일부 학과에서는 특정 전공적합성이나 인성 등 다른 요소도 중요하게 평가할 수 있으므로, 이에 대한 준비를 해두는 것이 좋습니다.
+따라서, 4.2라는 점수로 경영정보학과의 최초등록 가능성은 낮을 것으로 보이지만, 정확한 판단을 위해서는 위와 같은 정보들을 종합적으로 고려해야 합니다. 또한, 학교 홈페이지나 입학처에 문의하여 가장 최신 정보를 얻는 것이 좋습니다.
+더 자세한 정보가 필요하시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속해 보시거나, 직접 학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하고 있으며, 5.33이라는 점수가 낮다는 점을 언급하고 있습니다. 그러나 "상당히 낮은 점수"라는 표현은 다소 주관적일 수 있으며, 정확한 수치적 비교가 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 경영정보학과의 합격 가능성에 대한 논의가 일관되게 이어집니다. 다만, "합격하기 어려울 가능성이 크다"는 표현은 원본의 명확한 결론과는 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 합격 가능성에 대한 다양한 요인을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 경영정보학과의 평균 등급과 관련된 정보를 정확하게 전달하고 있습니다. 그러나 "상당히 낮은 점수"라는 표현은 다소 주관적일 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 주관적인 표현이 포함되어 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 주관적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 가독성이 떨어질 수 있습니다. 
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.5911816450937813</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>5.33이라는 표준점수는 상당히 낮은 점수입니다. 동의대학교 경영정보학과의 경우, 일반적으로 수능 성적 기준이 높은 편이며, 특히 경영정보학과와 같은 학과는 경쟁률이 매우 높습니다.
+현재 제공된 정보만으로는 정확한 답변을 드리기 어렵지만, 5.33이라는 점수로는 경영정보학과에 합격하기 어려울 가능성이 큽니다. 하지만 최종 합격 여부는 여러 요인에 따라 결정되므로 다음과 같은 점들을 고려해보시는 것이 좋습니다:
+1. **전형 방식**: 동의대학교의 경우, 수능 성적뿐만 아니라 학업역량과 전공적합성 등 다양한 평가 기준을 적용합니다.
+2. **지원 자격**: 지원자의 개인적인 경험, 노력, 그리고 학교생활기록부 등의 내용이 중요하게 평가됩니다.
+3. **경쟁률**: 해당 학과의 경쟁률을 확인하여 자신의 성적 위치를 파악해야 합니다.
+4. **추천서 및 자기소개서**: 이들 문서에서 지원자의 강점과 적합성을 잘 보여줄 수 있습니다.
+5. **면접 준비**: 면접에서도 좋은 평가를 받기 위해 충분히 준비하는 것이 중요합니다.
+따라서, 5.33이라는 점수로는 합격하기 어렵다고 판단되지만, 지원자의 개인적인 경험과 노력이 잘 반영되어 있다면 기회는 있을 수 있습니다. 
+추천되는 조치:
+- **자기소개서와 추천서 작성**: 이 부분에서 자신의 강점을 잘 보여줄 수 있도록 준비합니다.
+- **면접 준비**: 면접 질문을 미리 예상하고 답변을 준비합니다.
+- **학업역량과 전공적합성 증명**: 학교생활기록부와 관련 서류를 철저히 준비합니다.
+더 자세한 정보나 조언이 필요하시다면, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 등급과 관련된 정보를 포함하고 있으며, 3.33이라는 점수가 합격 가능성이 있다는 점을 언급하고 있습니다. 그러나, 응답에서 제시된 추가 요소들은 원본 텍스트에 명시된 정보와는 다소 차이가 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하여 추가적인 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 약간의 불일치가 있습니다. 예를 들어, 원본 텍스트는 3.33 점수가 평균보다 높다고 명시하고 있지만, 생성된 응답은 여러 요소를 고려해야 한다고 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 지원자의 점수와 관련된 여러 요소를 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나, 일부 부분에서 정보의 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나, 원본 텍스트의 특정 세부사항을 완전히 반영하지는 못했습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 요소에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 일부 추가 정보는 원본 텍스트와의 일관성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.6345861933533096</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>3.33이라는 점수는 고려해볼 만한 수준입니다만, 정확히 결정하기 위해서는 몇 가지 요소를 더 확인해야 합니다.
+1. **전형방법**: 바이오응용공학부의 전형요소 중 학생부교과성적이 포함되어 있는지 확인해야 합니다. 일반적으로 바이오응용공학부는 학생부교과 성적을 중요하게 고려합니다.
+2. **학생부 교과성적 반영방법**: 동의대학교의 경우, 학생부교과성적은 특정 과목의 석차등급을 기준으로 반영됩니다. 전반적으로 국어, 수학, 영어 등 주요 과목에서 좋은 성적이 필요합니다.
+3. **전형요소 반영비율**: 바이오응용공학부의 경우 학생부교과성적은 중요한 요소일 것입니다. 예를 들어, 전형요소 반영비율이 40% 이상인 경우에는 학생부교과성적이 중요하게 작용할 수 있습니다.
+4. **전형별 세부 안내**: 각 모집단위의 정확한 전형요소와 비율을 확인해야 합니다. 일부 학과는 실기나 서류평가 등 다른 요소를 더 많이 반영하기도 하므로, 이 부분도 중요합니다.
+5. **등록금 납부 기간**: 최초합격자 발표 이후 지정된 등록기간 내에 등록금을 납부해야 합니다. 이 기간은 2024년 2월 7일부터 13일까지입니다.
+따라서, 3.33이라는 점수는 바이오응용공학부의 최초등록자로 가능할 수 있지만, 정확한 가능성 판단을 위해서는 위의 요소들을 더 자세히 확인해야 합니다. 또한, 동의대학교 입학 홈페이지나 학교 관계자에게 직접 문의하는 것이 가장 확실합니다.
+추가적으로, 지원 전에 해당 학과의 전형요소와 비율을 다시 한 번 확인하시고, 필요하다면 합격 가능성을 높이기 위한 추가 준비를 하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 모집요강에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 평균 등급과 합격 가능성에 대한 정보는 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 지원 가능성에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과 비교하여 현재 성적이 낮다는 점을 일관되게 반영하지 않고 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 지원 방법을 다루고 있어 관련성이 높지만, 원본 텍스트의 핵심 정보인 평균 등급과 합격 가능성에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 유창성 점수를 낮추었습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적 흐름이 다소 약합니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 반영하지 않고 있으며, 성적에 대한 평가가 부정확합니다. 이로 인해 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 특히 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 문장으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.4784750868714209</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과의 모집요강을 참고하여 답변 드리겠습니다.
+방사선학과는 정시 모집인원이 없으므로, 일반학생전형으로 지원하실 수 있습니다. 하지만 방사선학과는 특정 학업역량이나 실기능력이 요구되는 특성화된 전공입니다. 따라서 성적 외에도 다음과 같은 요소들이 중요하게 평가될 수 있습니다:
+1. **진로선택과목 성적**: 방사선학과에서는 진로선택과목 중 최대 2과목을 반영합니다. 이 과목들은 일반적으로 과학 분야와 관련이 있으므로, 해당 과목의 성적이 높은 것이 유리합니다.
+2. **학생부 교과성적**: 방사선학과는 학생부 교과성적 중 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 등 석차등급 상위 12과목을 반영합니다. 따라서 이들 과목의 성적이 높은 것이 중요합니다.
+3. **면접 및 서류평가**: 방사선학과는 면접과 서류 평가를 통해 학업역량, 전공적합성 등을 종합적으로 평가합니다.因此，根据上述信息，您的成绩（4.4等）在理论上是有可能申请放射治疗学的。但是，您需要确保以下几个方面：
+1. **科目选择**：尽量选择和科学相关的科目来提高分数。
+2. **学生学业记录**：确保您的整体学业记录良好，特别是与放射治疗学相关的课程。
+3. **面试准备**：准备好参加面试，并展示出对专业的兴趣和适应能力。
+建议您详细查看东义大学的招生简章和具体要求，并根据自己的情况进行调整。如果有疑问，可以咨询学校的招生办公室以获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 정시 모집인원이 27점이라고 언급하고 있으나, 이는 잘못된 정보입니다. 원본 텍스트에서는 방사선학과의 정시 모집인원에 대한 언급이 없으며, 오히려 2.66이라는 점수가 평균보다 높음을 의미한다고 설명하고 있습니다. 따라서, 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 2.66이라는 점수가 평균보다 높다고 명시하고 있지만, 생성된 응답은 이 점수가 낮다고 주장하고 있습니다. 이러한 모순으로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 정시 모집에 대한 합격 가능성을 논의하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 정보는 원본 텍스트와 일치하지 않기 때문에 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 고려하여 합격 가능성을 예측하는 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 정시 모집인원에 대한 잘못된 정보를 포함하고 있으며, 이는 원본 텍스트의 사실과 상충합니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 문제가 있습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 합격 가능성에 대한 논의가 이루어지고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.5542203014537692</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2.66이라는 점수는 방사선학과의 정시 모집인원을 고려할 때 상대적으로 낮은 점수입니다. 방사선학과의 정시 모집인원이 27점으로 매우 적은 수치라는 것을 감안하면, 이 점수로 합격 확률은 낮을 가능성이 있습니다.
+정확한 합격 가능성 예측은 여러 요소를 고려해야 합니다:
+1. **모집인원**: 방사선학과의 정시 모집인원이 27점이라는 점.
+2. **경쟁률**: 이 과정에서 지원하는 다른 수험생들의 성적 분포와 경쟁률을 고려해야 합니다.
+3. **전형별 평균성적**: 동일한 학과의 다른 전형(예: 조기취업형 계약학과 등)에서의 평균 성적을 비교해볼 필요가 있습니다.
+따라서, 2.66이라는 점수로는 방사선학과 정시 모집에 합격하기 어렵다고 볼 수 있습니다. 다른 전형이나 대안을 고려하거나, 추가 준비를 하는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 3.66의 성적이 낮다고 주장하지만, 원본 텍스트에서는 이 성적이 평균보다 높다고 명시되어 있습니다. 따라서 사실관계에 큰 오류가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본에서는 3.66이 평균보다 높은 성적이라고 했으나, 생성된 응답에서는 이를 낮은 성적이라고 잘못 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 전체적인 관련성이 떨어집니다. 그러나 경찰행정학과와 관련된 정보는 여전히 유용합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 정확성 문제로 인해 완전한 유창성을 평가하기는 어렵습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 정보가 서로 충돌하여 전체적인 일관성이 약해졌습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 3.66의 성적이 낮다고 주장하는 것은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실관계와 일관성에서 큰 문제를 가지고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.5389052485202437</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공 농어촌 전형에 지원하셨다면, 합격 가능성은 낮습니다. 이유는 다음과 같습니다:
+1. **성적 기준**: 대부분의 대학에서 농어촌 전형은 일반적으로 3.0 이상의 성적을 요구합니다. 일부 특수한 경우를 제외하고, 3.66이라는 성적이 매우 낮은 편입니다.
+2. **전형 특성**: 경찰행정학과는 보통 높은 학업 능력을 필요로 하는 전공으로 알려져 있습니다. 따라서 농어촌 전형에서도 비교적 높은 성적을 요구하는 경우가 많습니다.
+3. **경쟁률**: 농어촌 전형에도 많은 지원자가 있을 가능성이 높아, 낮은 성적이면 경쟁에서 밀릴 수 있습니다.
+하지만, 최종 합격 여부는 여러 요인에 따라 결정되므로 다음과 같은 절차를 따르시는 것이 좋습니다:
+1. **서류 준비**: 요구되는 서류들을 완벽하게 준비하고 제출하세요.
+2. **면접 준비**: 면접 질문을 미리 준비해두세요. 특히 농어촌 경험과 관련된 이야기가 필요할 수 있습니다.
+3. **합격 가능성이 있는 전형 확인**: 다른 학교나 전형에서 더 낮은 성적도 허용하는 곳이 있는지 확인하세요.
+결국, 최종 결정은 입학사정관의 판단에 따라 이루어집니다. 따라서 모든 준비를 철저히 하고, 가능한 한 많은 정보를 수집하여 자신을 최대한 보여주는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 정보를 제공하지만, 원문에서 언급된 특정 학과 목록을 포함하지 않아 일부 사실이 누락되었습니다. 또한, "가능성은 매우 낮다"는 주장은 원문에서 제공된 정보와 일치하지 않으며, 원문은 특정 학과에 따라 합격 가능성이 다를 수 있다고 명시하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 예비 25번의 합격 가능성에 대한 결론이 원문과 상충합니다. 원문은 특정 학과에 따라 합격 가능성이 있다고 언급하고 있으나, 생성된 응답은 가능성이 낮다고 단정짓고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원문에서 제공된 특정 학과 목록에 대한 언급이 없어서 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인에 대한 설명이 명확하게 이어집니다. 그러나 원문과의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 정보를 제공하지만, 원문에서 제공된 특정 학과 목록을 누락하고 있으며, 합격 가능성에 대한 결론이 원문과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 일치성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 일관성을 유지하고 있습니다. 그러나 원문과의 차이가 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.441648630330941</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25위라는 순위가 매우 높은 위치입니다. 대부분의 경우, 예비후보자 중에서 선발하는 인원이 제한적이기 때문에 예비 25번으로 나왔다고 해서 확정적으로 붙을 수 있는 것은 아닙니다.
+하지만 다음과 같은 요인들을 고려해볼 수 있습니다:
+1. 모집인원: 실제 결원 발생 시 예비후보자 중 몇 명이 선발될지에 따라 달라질 수 있습니다.
+2. 경쟁률: 현재의 경쟁률과 예비후보자의 수준을 고려해야 합니다.
+3. 학교 정책: 일부 대학에서는 예비후보자를 상당히 많이 두는 경우도 있으므로, 이 점도 참고해야 합니다.
+결론적으로 확실한 것은 아니지만, 가능성은 매우 낮다고 볼 수 있습니다. 그러나 최선을 다해 준비하고, 다른 전형(예를 들어 정시 나군 등)에서도 지원하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 법경찰행정학부가 존재하지 않는다고 명시하고 있지만, 생성된 응답에서는 법경찰행정학부의 합격 평균 점수와 경쟁률에 대해 언급하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1  
+   - 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 법경찰행정학부가 존재하지 않는다고 했음에도 불구하고, 생성된 응답에서는 해당 학부에 대한 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2  
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 관련성이 떨어집니다. 원문에서 다루고 있는 경찰행정학과의 성적 정보와는 관련이 없으므로 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 1  
+   - 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 법경찰행정학부의 존재 여부와 관련된 정보가 잘못되어 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 따라서 낮은 점수를 부여합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성과 관련성 문제로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.7349003068665401</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 법경찰행정학부의 정시모집 경쟁률과 합격평균 점수는 매년 변동되므로, 정확한 정보를 얻기 위해서는 해당 연도의 입학전형 안내서나 동의대학교 입학처 웹사이트를 확인하는 것이 가장 좋습니다. 하지만 일반적으로 법경찰행정학부의 경우 경쟁률이 높아 평균 성적이 높은 편입니다.
+대략적인 참고로, 2023년도 동의대학교 법경찰행정학부의 정시모집 합격평균 점수는 다음과 같습니다:
+- 수능 기준: 약 650점 이상
+- 학생부종합 평균 점수: 약 90점 이상
+이러한 점수를 얻기 위해서는 다음과 같은 조건을 충족시켜야 합니다:
+1. **수능 성적**: 수능 국어, 수학(전형에 따라 선택), 영어 등 주요 과목에서 높은 점수를 받는 것이 중요합니다.
+2. **학생부 성적**: 학생부 교과성적이 높아야 하며, 특히 인성 및 학업역량 부분에서 우수한 평가를 받아야 합니다.
+3. **추천서와 자기소개서 등 서류평가**: 이 부분에서도 좋은 점수를 받기 위해 노력해야 합니다.
+4. **면접 성적**: 면접에서도 높은 점수를 받는 것이 중요합니다.
+정시로 안정적으로 들어가려면, 위의 평균 점수보다 더 높은 성적이 필요할 수 있습니다. 또한, 동의대학교 입학처 웹사이트나 전화로 확인하는 것이 가장 정확한 정보를 얻을 수 있는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 영어 등급 5.33에 대한 해석을 제공하고 있으며, 보육가정상담학과의 모집요강을 확인해야 한다고 언급하고 있습니다. 그러나 원본 텍스트에서 아동학과의 평균 등급에 대한 정보가 제공되었음에도 불구하고, 생성된 응답은 보육가정상담학과에 대한 구체적인 정보를 제공하지 않고 일반적인 평가 기준을 설명하고 있습니다. 이로 인해 약간의 사실성 부족이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 보육가정상담학과에 대한 구체적인 정보가 부족하여 일관성이 떨어집니다. 원본 텍스트는 아동학과에 대한 정보를 제공하고 있지만, 생성된 응답은 보육가정상담학과에 대한 일반적인 설명으로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 등급과 관련된 정보를 제공하고 있으며, 보육가정상담학과의 합격 가능성에 대한 논의를 포함하고 있습니다. 그러나 원본 텍스트의 특정 내용(아동학과의 평균 등급)에 대한 언급이 부족하여 완전한 관련성은 떨어집니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 점수에 대한 설명이 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 등급에 대한 일반적인 정보를 제공하고 있지만, 원본 텍스트의 구체적인 데이터(아동학과의 평균 등급)에 대한 언급이 부족하여 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 원본 텍스트와의 연결이 부족하여 전반적인 품질이 약간 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있지만, 원본 텍스트의 특정 내용에 대한 언급이 부족하여 의미의 적절성이 약간 떨어집니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 내용을 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.6216608581978084</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>5.33이라는 점수는 수능 영어 등급으로 보입니다. 동의대학교 보육가정상담학과의 모집요강을 확인해야 하지만, 일반적으로 인문사회과학대학의 일부 학과들은 국어, 수학, 영어 등급, 탐구 과목 등급 등을 종합적으로 평가합니다.
+보육가정상담학과는 보통 인문사회과학 분야에 속하므로, 다음과 같은 점수를 고려해야 합니다:
+1. **국어**: 국어는 필수로 반영되며, 높은 점수가 유리합니다.
+2. **수학**: 수학 등급도 중요하지만, 보육가정상담학과의 경우 수학에 대한 요구사항이 일반적으로 낮을 가능성이 있습니다.
+3. **영어**: 5.33이라는 등급은 중간 정도입니다. 이 점수는 합격 가능성에 영향을 줄 수 있지만, 다른 과목 성적이 높다면 상대적으로 낮은 영어 등급도 충분히 감내할 수 있습니다.
+4. **탐구**: 탐구 과목의 등급도 중요합니다.
+따라서 5.33이라는 영어 등급만으로는 확실한 합격을 보장하기 어렵습니다. 다른 과목의 성적이 높다면 합격 가능성은 있습니다. 하지만 정확한 합격 가능성을 판단하려면 동의대학교 보육가정상담학과의 모집요강을 확인해야 합니다.
+만약 모집요강에서 영어 등급이 중요한 역할을 한다면, 5.33이라는 점수는 낮은 편으로, 다른 과목의 성적이 높아야 합격 가능성을 높일 수 있습니다.
+추가적으로, 동의대학교 입학 홈페이지나 학교 관계자에게 직접 문의하는 것이 가장 정확한 정보를 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 포함하고 있으며, 예비 12번의 합격 가능성에 대한 설명도 적절합니다. 그러나 일부 세부 사항이 원본 텍스트와 다를 수 있어 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 동점자 처리 기준과 같은 추가적인 요소를 언급하여 원본 텍스트와의 일관성이 떨어질 수 있습니다. 따라서 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 예비 번호와 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다. 따라서 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 흐름이 약간 끊길 수 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 동점자 처리 기준과 같은 추가적인 정보가 포함되어 있어 정확성에 대한 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 일관성 문제로 인해 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 추가적인 정보가 포함되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 느껴질 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.7359346164328007</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과의 경우, 정원 외 모집인원이 있으며 3차 충원합격자 발표가 있습니다. 그러나 동점자 처리 기준 및 합격 가능성을 결정하는 요소들이 복잡하게 작용합니다.
+1. **동점자 처리기준**: 
+   - 3차 충원합격에서는 예비 순위에 따라 처리되며, 예비 12번을 받았다는 것은 상대적으로 낮은 위치입니다.
+2. **모집인원과 동점자 수**: 
+   - 정확한 모집인원과 동점자 수를 알면 더 정확한 판단이 가능합니다. 만약 모집인원이 많고 동점자가 적다면, 예비 12번도 합격 가능성은 있습니다.
+3. **전형 요소 평가**: 
+   - 전형요소 중 서류평가와 면접 등에서 좋은 성적을 받았다면, 이는 합격 가능성을 높일 수 있습니다.
+4. **합격자 발표 일정**: 
+   - 3차 충원합격자는 개별 전화 통보를 통해 발표되므로, 최종 결과는 해당 학교에서 공지될 때까지 확실하지 않습니다.
+**추천 조치**:
+- **공식 홈페이지 확인**: 합격자 발표 일정을 지켜보고, 동의대학교 입학안내 홈페이지를 통해 최신 정보를 확인하세요.
+- **전화 연락 확인**: 3차 충원합격자가 발표되는 기간 내에 전화 통보를 받으시기 바랍니다.
+최종적으로 합격 여부는 학교에서 공식 발표될 때까지 확실하지 않으므로, 최대한 정보를 업데이트하고 대비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 점수가 높은 점수라는 점을 언급하고 있지만, 유아교육학과의 평균 점수인 4.18을 고려할 때, 4.75로 지원하기 어려울 것이라는 원문 내용과는 다소 상충하는 부분이 있습니다. 또한, 유아교육학과의 수능 반영 방식에 대한 설명이 원문에 명시되어 있지 않으므로, 이 부분에서 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 여러 요소를 고려해야 한다고 언급하지만, 원문에서 제시된 유아교육학과의 평균 점수와의 일관성이 부족합니다. 원문에서는 4.75로 지원하기 어려울 것이라고 명시했으나, 생성된 응답에서는 합격 가능성이 크다고 언급하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 여러 요소를 다루고 있어 관련성이 높습니다. 그러나 원문에서 제시된 구체적인 학과와 평균 점수에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 중간에 중국어로 된 문장이 포함되어 있어 흐름이 약간 끊기는 느낌을 줍니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 마지막 부분에서 중국어로 된 문장이 포함되어 있어 일관성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 여러 요소를 설명하고 있지만, 원문에서 제시된 평균 점수와의 관계에서 정확성이 떨어집니다. 특히, 4.75로 지원하기 어려울 것이라는 원문 내용과의 불일치가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 요소를 고려하고 있으나, 사실성과 일관성에서 부족함이 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 설명이 적절하게 이루어져 있으며, 의미적으로도 적합합니다. 그러나 원문과의 차이로 인해 완전한 적합성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 이루어져 있습니다. 다만, 중국어 문장이 포함되어 있어 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.6317521218184891</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 하지만 유아교육학과에 입학하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **유아교육학과의 수능 반영 방식**: 
+   - 유아교육학과는 일반적으로 국어, 수학, 영어 등 주요 과목을 반영합니다.
+   - 4.75라는 점수는 대부분의 모집단위에서 좋은 성적입니다.
+2. **전형별 차이**:
+   - **일반학생전형**: 수능 점수가 높으면 유리합니다. 4.75는 상당히 높은 점수로, 합격 가능성이 큽니다.
+   - **학생부종합 전형**: 이 경우에는 수능 성적이 중요하지만, 학생부와 면접 등 다른 요소도 고려됩니다.
+3. **모집인원과 경쟁률**:
+   - 유아교육학과의 모집인원과 지원자 수를 확인해야 합니다.
+   - 경쟁률이 높다면 4.75라는 점수로는 상대적으로 안전한 성적일 수 있습니다.
+4. **기타 요소**:
+   - 학생부 내용, 면접 성적 등도 중요한 역할을 합니다.
+   - 특별한 경험이나 활동이 있다면 이점이 추가로 도움이 될 수 있습니다.
+결론적으로 4.75라는 점수는 유아교육학과에 입학하기 위한 좋은 기반이지만, 최종 합격 여부는 여러 요소가综上所述，关于这位考生能否通过4.75的高考成绩申请幼教专业以及该专业的难度问题，可以总结如下：
+1. **高考成绩**：4.75是一个相当高的分数，在大多数情况下会为申请幼教专业提供很大的优势。
+2. **专业要求**：
+   - 幼教专业的录取通常会考虑学生的高考成绩、学生综合素质评价（如高中学业表现）以及面试等多方面因素。
+   - 4.75的分数在很多情况下已经足够，但具体还要看该专业的招生计划和竞争情况。
+3. **申请难度**：
+   - 如果幼教专业有较多名额且竞争不激烈，则通过的可能性较大。
+   - 若该专业录取人数较少而报考人数多，则需要综合考虑其他因素如学生综合素质评价等。
+综上所述，4.75的高考成绩在申请幼教专业时是一个有利条件，但最终能否成功还需结合具体的专业招生情况和其他相关因素。建议考生详细了解目标专业的招生要求和流程，并做好充分准备。</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 보육가정상담학과의 합격 가능성에 대해 부정적인 입장을 취하고 있으며, 최저 합격 등급을 4.50 이상으로 언급하고 있습니다. 그러나 원본 텍스트에서는 4.16의 등급이 아동학과의 평균 등급보다 높아 합격 가능성이 높다고 명시하고 있습니다. 따라서 사실관계에서 큰 차이가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 4.16 등급이 합격 가능성이 높다고 하지만, 생성된 응답은 합격 가능성이 낮다고 주장하고 있습니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보와 합격 가능성에 대한 논의를 포함하고 있어 원본 텍스트와 관련이 있습니다. 그러나 원본의 긍정적인 전망과는 다르게 부정적인 시각을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 이유가 명확하게 제시되어 있습니다. 그러나 원본 텍스트와의 논리적 연결이 약해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 특히 최저 합격 등급에 대한 정보가 잘못된 것으로 보입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실관계, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과는 다소 다르게 해석되고 있으며, 부정적인 시각을 제시하고 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 다만, 원본과의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.5814874423856129</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>4.16의 등급을 가지고 보육가정상담학과(아동학과)로 정시 일반학생전형에 지원한다면, 합격 가능성은 높지 않을 것으로 예상됩니다.
+보육가정상담학과는 인문사회과학대학 소속이며, 이 과정의 경쟁률이 매우 높습니다. 특히 4.16 등급은 중간 수준의 성적으로, 대부분의 경우 합격을 보장하지는 않습니다.
+아래 몇 가지 이유를 고려해보세요:
+1. **경쟁률**: 이 과정의 경쟁률이 높습니다. 특히 인문사회과학대학 내에서는 상대적으로 인기가 많은 과목들입니다.
+2. **최저 등급**: 보육가정상담학과의 최저 합격 등급은 4.50 이상으로 알려져 있습니다 (일부 년도를 제외하고). 따라서 4.16 등급은 최저합격선을 미치지 못합니다.
+3. **추천생 및 특기자**: 이 과정에는 추천생, 특기자 등의 선발이 포함되어 있어 일반 학생들의 경쟁력이 더 약화됩니다.
+그러나 모든 것이 확실하지는 않습니다. 최저합격선이 변동될 수 있으며, 일부 지원자가 불참하거나 등록포기를 하는 경우에도 합격 가능성은 열려 있습니다.
+따라서:
+- **추가 지원 필요**: 4.16 등급으로는 보육가정상담학과에 충분한 확률을 가지기 어렵습니다. 다른 과목이나 전형(예: 실기/실적, 특별전형 등)으로도 지원해보시는 것이 좋습니다.
+- **준비 및 재검토**: 현재의 성적을 바탕으로 추가 학습 계획을 세우고, 필요하다면 수능 공부를 더 열심히 해보세요.
+결론적으로 4.16 등급으로 보육가정상담학과에 단독으로 지원하는 것은 위험한 선택일 수 있습니다. 다양한 전략을 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 정시 지원이 불가능하다고 명확히 언급하고 있으므로, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있습니다. 원문이 정시 지원이 불가능하다고 말하는 반면, 생성된 응답은 정시 모집에 포함되어 있다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 주제와의 관련성이 떨어집니다. 원문에서 질문한 내용에 대한 정확한 답변이 아니기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 그러나 각 문장 간의 연결은 비교적 잘 되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 반대되는 정보를 포함하고 있습니다. 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않는 정보를 제공하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.5164877310328221</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교에서 소프트웨어융합학과는 정시 모집에 포함되어 있습니다. 해당 학과의 경우, 정시 모집에서는 전형료가 35,000원이며, 지원자는 수능 성적을 기반으로 평균 등급을 통해 합격 여부를 결정받게 됩니다.
+소프트웨어융합학과는 주로 컴퓨터공학과와 소프트웨어공학부의 교육을 융합한 프로그램입니다. 이 학과에 지원하려면 다음과 같은 점수를 얻는 것이 일반적으로 필요할 것으로 예상됩니다:
+- **국어**: 4등급 이상
+- **수학**: 5등급 이상 (특히 수학 II)
+- **영어**: 4등급 이상
+이러한 등급은 과거 동의대학교 소프트웨어융합학과의 모집요강을 참고하여 추정된 것입니다. 실제 합격 기준은 매년 변동될 수 있으므로, 최신 정보를 확인하기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다.
+또한, 지원자는 학교생활기록부와 수능 성적을 통해 학업역량과 전공 적합성을 평가받게 됩니다. 따라서, 과외나 자기주도 학습 등을 통해 국어, 수학, 영어 등 주요 과목에서 높은 점수를 받는 것이 중요합니다.
+마지막으로, 정시 모집에서는 지원자의 전반적인 성적과 학업 역량을 종합적으로 평가하므로, 단순히 등급만 보고 판단하기보다는 전체적인 학력 수준을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 서류 평가와 면접의 중요성을 잘 설명하고 있으며, 서류 평가의 요소들(공동체 역량, 학업 역량, 전공 적합성)과 면접에서 평가되는 요소들(지원 동기, 학업 계획 등)을 정확하게 언급하고 있습니다. 그러나 원문에서 언급된 "학생부 교과성적"에 대한 구체적인 언급이 부족하여 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 서류 평가와 면접의 중요성을 강조하고 있습니다. 다만, 원문에서 명시된 "학생부 교과성적"의 중요성이 다소 간과된 점이 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높으며, 서류 평가와 면접에 대한 구체적인 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴져 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 더 매끄러운 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, "학생부 교과성적"에 대한 언급이 부족하여 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 사실성에서 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 부족함이 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하지만, 일부 세부 사항에서 원문의 맥락을 완전히 반영하지 못한 점이 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.6358830951137492</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>『소프트웨어융합학과』의 면접 점수와 서류 평가 중에서 더 많은 비중을 두는 것은 일반적으로 서류 평가입니다. 그러나 면접에서도 중요한 역할을 합니다.
+1. **서류 평가**:
+   - **공동체역량**: 협업능력, 학교폭력 여부 등이 포함됩니다.
+   - **학업역량**: 출결상황, 교과학습발달상황 등이 반영됩니다.
+   - **전공적합성**: 지원 전공과 관련된 활동 및 경험을 평가합니다.
+2. **면접 점수**:
+   - 면접에서는 지원 동기와 학업 계획, 학업역량, 전공적합성 등이 평가됩니다.
+   - 학교생활을 열심히 하고, 선행학습과 사교육의 의존 없이 준비한 개인의 입장과 경험을 강조해야 합니다.
+3. **서류 준비**:
+   - **학교생활기록부**: 이는 공동체역량, 학업역량, 전공적합성 등에 대한 중요한 근거가 됩니다.
+   - **면접질문 답변**: 면접 질문 공통문항을 미리 익혀두고, 실제 경험과 노력을 중심으로 답변해야 합니다.
+따라서, 서류 준비는 매우 중요하지만, 면접에서도 좋은 성적을 받기 위해 학교생활 및 전공적합성에 대한 구체적인 경험과 노력 등을 잘 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 등급과 관련된 정보를 포함하고 있지만, 표준 변환 점수와 관련된 세부 사항은 원본 텍스트에 명시되어 있지 않으며, 일부 정보는 추정에 기반하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보(예: 모집 인원, 지원 인원 등)는 원본 텍스트에 포함되어 있지 않아 일관성이 떨어집니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 세부 사항이 포함되어 있어 약간의 주제 이탈이 발생합니다. 그러나 여전히 관련성이 높기 때문에 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서의 표현이 다소 복잡할 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 추가 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있어 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 표준 변환 점수와 같은 세부 사항은 원본 텍스트에 명시되어 있지 않으므로 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 다소 부족함이 있어 종합 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 다소 혼란을 줄 수 있어 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 복잡한 표현이 있을 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.7451740316043103</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 소프트웨어공학부의 최초합격자를 위한 수능 점수 기준을 확인해보겠습니다.
+- **소프트웨어공학부**는 30명 모집이며, 지원 인원이 146명으로 많은 경쟁률을 보이고 있습니다.
+- 평균 표준 변환 점수 합은 **330.11 / 9.08**입니다.
+당신의 수능 점수가 4.08이라면, 이는 표준 변환 점수로 환산하면 대략 **352점** 정도 됩니다 (이 값은 실제 평균과 표준 편차를 기반으로 추정한 값이며, 정확한 수치는 해당 학과의 공시된 데이터를 참고해야 합니다).
+소프트웨어공학부의 최초합격자들의 평균 표준 변환 점수 합은 **330.11**입니다. 당신의 예상 점수가 이보다 높으므로,理论上，你的分数应该足以使你成为该专业的初试合格者。不过，请注意实际录取分数线可能会有所波动，并且学校会根据报名人数和成绩分布进行调整。
+建议您：
+1. 参考最新的官方数据和公告。
+2. 关注学校的官方网站或招生信息平台以获取最新通知。
+3. 准备好其他申请材料，如个人陈述、推荐信等，以防需要进一步补充资料。
+祝您好运！如果您有更多问题，请随时询问。</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 구체적인 합격 등급 정보가 없다는 점을 언급하고 있지만, "평균 5등급은 경쟁률이 높은 학과에서는 낮은 등급으로 간주될 가능성이 있다"는 주장은 다소 일반화된 의견으로, 원문에서 제공된 정보와는 일치하지 않습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 정보와 일부 일치하지만, "소프트웨어공학부 또는 관련 학과의 경우"라는 부분은 원문에서 제공된 정보와는 다소 차이가 있습니다. 원문은 소프트웨어융합학과에 대한 정보만을 다루고 있으므로 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 지원 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 일부 내용은 원문과 직접적으로 관련이 없는 일반적인 정보입니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있어 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 문장은 더 명확하게 연결될 수 있었으므로 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하지 않는 부분이 있으며, 특히 "평균 5등급은 낮은 편"이라는 주장은 정확하지 않을 수 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 정확성에서 다소 부족함이 있어 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 일부 일반화된 내용이 포함되어 있어 의미적 적절성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 일부 문장은 다소 복잡할 수 있어 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.643314514372194</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 "소프트웨어융합학과"에 대한 지원 가능 여부를 확인할 수 있는 구체적인 데이터가 없습니다. 하지만, 일반적으로 소프트웨어공학부 또는 관련 학과의 경우, 평균 5등급은 경쟁률이 높은 학과에서는 낮은 등급으로 간주될 가능성이 있습니다.
+"소프트웨어융합학과"가 정확히 어떤 학과인지 확인하고, 해당 학과의 모집인원, 지원자 수, 평균 등급 등을 고려해야 합니다. 또한, 지원자의 전반적인 성적 경향과 진로 선택 과목 등급도 중요한 요소입니다.
+만약 "소프트웨어융합학과"가 소프트웨어공학부나 컴퓨터공학과와 같은 학과를 의미한다면, 평균 5등급은 낮은 편이므로 경쟁률을 고려하여 지원 가능성을 판단해야 합니다.
+추가 정보:
+- 해당 학과의 모집인원
+- 지원자 수 및 그들의 등급 분포
+- 전반적인 입학 경쟁 상황
+위와 같은 정보를 참고하여 결정하는 것이 좋습니다. 필요하다면, 대학교 입학처에 직접 문의하거나, 제공된 데이터를 바탕으로 추가 조사를 진행해보세요.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 사실을 포함하고 있지만, 신소재공학과의 평균 표준 변환 점수와 표준 편차에 대한 정보는 원본 텍스트에 명시되어 있지 않습니다. 또한, 경쟁률에 대한 정보도 원본 텍스트와 일치하지 않으므로, 정확한 사실을 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 바탕으로 하고 있지만, 추가된 정보가 원본과 일치하지 않거나 모순되는 부분이 있습니다. 예를 들어, 경쟁률에 대한 설명이 원본 텍스트와 다릅니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트에서 제공된 정보에 비해 다소 불필요한 세부사항이 포함되어 있습니다. 그러나 전반적으로 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 정보가 원본과 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 세부사항과 일치하지 않는 부분이 있어 정확성에 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 추가 정보가 원본의 의도와 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.5887859848059233</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>4.28이라는 표준 변환 점수는 상당히 높은 점수입니다. 그러나 동의대학교 신소재공학과에 입학하기 위해서는 여러 요인을 고려해야 합니다.
+1. **모집 인원 및 지원자 수**: 신소재공학과는 56명을 모집하며, 지원자는 81명이었습니다. 이는 경쟁률이 약 1.45:1로 낮지 않지만 여전히 높은 수준입니다.
+2. **경쟁률**: 1.45:1의 경쟁률은 상대적으로 낮습니다. 그러나 지원자가 많아서 경쟁이 치열할 수 있습니다.
+3. **평균 점수 및 표준 편차**: 신소재공학과의 평균 표준 변환 점수는 271.64로, 표준 편차는 19.52입니다. 이는 지원자의 성적이 상대적으로 일관되게 높은 것을 의미합니다.
+4. **개인 성적**: 4.28이라는 점수가 평균 이상의 성적을 보여주므로, 이 점수로 신소재공학과에 입학할 가능성은 있습니다.
+결론적으로, 4.28이라는 높은 표준 변환 점수는 신소재공학과에 입학하기 위한 좋은 기반을 제공합니다. 그러나 최종 결정은 경쟁률, 지원자의 수, 그리고 해당 학과의 입학 정원 등 여러 요인에 따라 달라질 수 있습니다.
+따라서, 4.28이라는 점수로 신소재공학과에 입학할 가능성이 높지만, 확실한 것은 아닙니다. 지원자들의 성적 분포와 경쟁률을 고려하여 최종 결정을 내리는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 일반학생전형에 자기소개서가 필요하다고 잘못된 정보를 제공하고 있습니다. 원본 텍스트는 자기소개서가 필요 없다고 명확히 언급하고 있으므로, 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 내용을 포함하고 있습니다. 원본에서는 자기소개서가 필요 없다고 했지만, 생성된 응답에서는 필요하다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 자기소개서 작성에 대한 조언을 포함하고 있지만, 원본 텍스트의 핵심 질문인 자기소개서 필요 여부와는 관련이 적습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장 구조가 복잡하여 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 자기소개서의 필요성에 대한 논의가 원본과 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 정보를 제공하고 있습니다. 자기소개서가 필요하다고 잘못된 정보를 전달하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원본 텍스트와의 관계가 부정확하고 일관성이 없습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 자기소개서 작성에 대한 조언을 포함하고 있지만, 원본 텍스트의 맥락과는 맞지 않아서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.5307281110760763</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능(일반학생전형)을 통해 지원할 때는 자기소개서를 제출해야 합니다. 그러나 일반적으로 수능(일반학생전형)은 주로 수능 점수에 따라 합격 여부가 결정되므로, 자기소개서의 중요성은 상대적으로 낮습니다.
+자기소개서 작성 시 다음과 같은 내용을 고려해보세요:
+1. **개인적 특징**: 자신의 성격, 강점 등을 간단히 소개합니다.
+2. **학업 목표**: 대학에서 이루고자 하는 학업 목표를 명시합니다.
+3. **관련 경험**: 관련된 학교内外的，具体指的是中国境内的外部。如果你有其他问题或需要更详细的信息，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 4개 영역 등급이 4.5일 경우 합격 가능성을 판단하기 어려운 점을 언급하고 있으며, 추가 모집 가능성에 대한 여러 요인을 제시하고 있습니다. 그러나 원문에서 제공된 구체적인 평균 등급과 표준 편차에 대한 정보는 포함되어 있지 않아 일부 사실이 누락된 것으로 평가됩니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문에서 언급된 내용과 일관되며, 추가 모집에 대한 정보와 관련된 요인들을 잘 설명하고 있습니다. 다만, 원문에서 강조된 각 학과의 평균 등급과 비교하는 중요성에 대한 언급이 부족하여 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다룬 주제와 관련이 깊으며, 수능 점수와 추가 모집 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 추가 모집 가능성에 영향을 미치는지를 명확하게 설명하고 있습니다. 따라서 일관성이 높습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확하지만, 원문에서 제공된 구체적인 수치나 데이터가 누락되어 있어 완전한 정확성에는 다소 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 잘 수행되고 있으나, 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 주제에 적합한 내용을 담고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성이 높습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.6271893719158197</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수만으로는 확정적으로 입학 가능 여부를 판단하기 어렵습니다. 추가 모집 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **모집 인원과 지원자 수**: 각 모집단위의 정원과 실제 지원자의 수가 중요합니다.
+2. **성적 경쟁률**: 다른 지원자의 성적이 어떻게 분포되어 있는지 확인해야 합니다.
+3. **전형 방식**: 수능 기반 전형인지, 실기나 서류 평가를 포함하는 전형인지 등이 영향을 줄 수 있습니다.
+4. **추가 모집 가능성**: 대학 측에서 추가 모집을 진행할 가능성이 있는지 확인해야 합니다.
+5. **최저 합격 점수**: 이전 년도의 최저 합격 점수를 참조하면 도움이 될 수 있습니다.
+6. **동점자 처리 기준**: 동점자가 발생했을 때 어떻게 처리되는지 확인해야 합니다.
+추가 정보를 얻기 위해서는 대학 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. 특히, 해당 대학의 입학규정과 추가 모집 관련 안내를 꼭 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 등급에 대한 구체적인 정보를 제공하지 않으며, 일반적인 수능 점수 기준에 대한 언급이 포함되어 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급 정보(영어 5.06, 수능 5.78)를 명시하지 않아 사실성을 떨어뜨립니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 구체적인 등급 정보를 제공하지 않음으로써 일관성이 부족합니다. 원본 텍스트의 평균 등급을 언급하지 않고 일반적인 수능 점수 기준을 제시하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 정시 모집에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 데이터와는 거리가 있습니다. 일반적인 수능 점수 기준을 언급하여 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트의 구체적인 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 등급에 대한 구체적인 정보를 제공하지 않으며, 일반적인 수능 점수 기준을 제시하고 있습니다. 원본 텍스트의 사실과는 다소 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 구체적인 사실을 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 적절한 맥락에서 정보를 제공합니다. 그러나 원본 텍스트의 구체적인 데이터가 누락되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 원본 텍스트의 구체적인 정보가 부족하여 완전한 이해를 돕지 못합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.7219578195190711</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학과의 정시 모집에서 요구되는 등급에 대한 구체적인 정보가 없습니다. 신소재공학과 같은 공학 분야는 보통 높은 수능 점수를 필요로 하며, 대략적으로는 국어+수학+탐구(2개)의 합격 기준 점수가 90점 이상이어야 하는 경우가 많습니다. 하지만 정확한 등급이나 점수는 해당년도와 모집단위에 따라 다르므로, 동의대학교 입학 홈페이지나 공식 안내서를 확인하시거나, 대학 입학처로 직접 문의하시는 것이 가장 정확합니다.
+https://ipsi.deu.ac.kr/main.do 웹사이트를 방문하여 최신 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수와 귀하의 점수를 비교하는 대신, 경쟁률 변화와 지원자 성적 분포 등 여러 요소를 고려해야 한다고 언급하고 있습니다. 그러나 원본 텍스트에서 제공된 구체적인 점수 정보는 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 원본의 핵심 내용인 평균 점수와 합격 가능성에 대한 직접적인 언급이 부족합니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 합격 가능성에 대한 질문에 대해 여러 요소를 고려해야 한다고 설명하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 점수 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 요소를 나열하며 논리적으로 연결되어 있지만, 원본 텍스트의 핵심 정보와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고, 일반적인 조언을 제공하고 있습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있지만, 원본 텍스트의 구체적인 사실과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트의 핵심 정보가 부족하여 완전한 이해를 돕지 못합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.5991826844005618</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 신소재공학과의 경우, 작년에 비해 경쟁률이 어떻게 변했는지와 현재 지원자들의 성적 분포가 어떠한지를 고려해야 합니다. 표준점수가 작년보다 약간 낮은 점수로 환산되더라도 최종 합격 가능성이 있는 경우는 다음과 같습니다:
+1. **경쟁률 변화**: 작년에 비해 신소재공학과의 모집인원이 늘어났거나 지원자가 줄었다면, 경쟁률이 낮아질 수 있습니다.
+2. **성적 분포**: 현재 지원자의 성적이 작년보다 높게 분포하고 있다면, 표준점수가 작년보다 약간 낮더라도 합격 가능성이 있습니다.
+3. **전형 요소의 다양성**: 일부 전형에서는 수능 점수 외에도 면접이나 서류 평가 등 다른 요소들이 반영되기 때문에, 표준점수만으로 판단하기보다는 전체적인 경쟁력을 고려해야 합니다.
+4. **모집인원과 지원자 수**: 모집인원이 많지 않거나 지원자가 적다면, 표준점수가 작년보다 약간 낮더라도 합격 가능성이 있습니다.
+따라서, 현재의 상황을 종합적으로 분석하여 최종 합격 가능성 판단하는 것이 좋습니다. 동의대학교 입학 홈페이지나 관계자에게 직접 문의하시거나, 전문적인 입시 컨설팅 서비스를 이용해 보는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 지원자의 성적이 4.1~4.2 등급일 경우 신소재공학부에 지원하기 어렵다고 주장하고 있지만, 원본 텍스트에서는 해당 성적이 평균 성적과 비교했을 때 다소 높은 편이라고 언급하고 있습니다. 따라서 사실관계에 큰 오류가 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상반된 주장을 하고 있습니다. 원본 텍스트는 합격 가능성이 높다고 말하는 반면, 생성된 응답은 합격하기 어렵다고 주장합니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본 텍스트의 긍정적인 결론과는 반대되는 내용을 포함하고 있습니다. 그러나 여전히 신소재공학부에 대한 정보와 지원 가능성에 대한 논의가 포함되어 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 이유가 명확하게 제시되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트는 지원자의 성적이 평균보다 높다고 언급하는 반면, 생성된 응답은 합격 가능성이 낮다고 주장합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실관계, 일관성, 정확성에서 낮은 점수를 받았으며, 이는 전체적인 품질에 부정적인 영향을 미칩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와는 다소 다르지만, 여전히 신소재공학부에 대한 논의가 포함되어 있어 의미적으로 적절한 부분도 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 각 이유가 명확하게 설명되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.5747031549280164</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.1~4.2 등급으로 동의대학교 신소재공학과에 지원하기는 어렵다고 볼 수 있습니다.
+다음은 이유들입니다:
+1. **신소재공학과 모집인원**: 일반적으로 대학의 학과별 모집인원이 제한적이라, 4등급대에서는 경쟁률이 매우 높습니다.
+2. **성적 기준**: 동의대학교는 수능 성적을 중요하게 고려하므로, 4.3 등급에서 4.1~4.2로 큰 차이는 아니지만, 이 정도 점수만으로는 합격 가능성은 낮습니다.
+3. **전형별 경쟁률**: 특히 일반학생전형은 많은 지원자가 있을 가능성이 높아, 성적이 조금이라도 낮으면 불리합니다.
+4. **추천서 등 추가 자료**: 수능 점수 외에도 추천서, 자기소개서 등의 서류 평가가 중요하므로, 이 부분에서 우수한 평가를 받는 것이 필요할 수 있습니다.
+5. **예비 합격자 선발 가능성**: 만약 모집인원이 미달되면 예비합격자를 추가로 선발할 수 있으므로, 4등급대에서도 일부 학생들이 합격할 가능성이 있지만, 확률은 낮습니다.
+결론적으로, 현재의 성적만으로는 신소재공학과에 합격하기 어렵다고 판단됩니다. 다른 전형이나 대학을 고려해보시거나, 추가로 수능 공부를 하여 점수를 높이는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 성적 기준을 제시하고 있지만, 원본 텍스트의 구체적인 성적 데이터와는 다릅니다. 예를 들어, 평균 점수와 표준 편차가 다르게 제시되었고, 과목 구성도 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있습니다. 예를 들어, '국어 + 수학(미적분/확률통계) + 영어'라는 과목 조합은 원본 텍스트의 '국어 + 수학 + 탐구(2개)'와 다릅니다. 이러한 불일치는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 인공지능학과의 성적 기준에 대한 정보를 제공하고 있으나, 원본 텍스트의 구체적인 성적 데이터와는 다르기 때문에 완전한 관련성을 가지지 않습니다. 그러나 주제는 여전히 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 성적 요소에 대한 설명이 명확하게 이어집니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 성적 수치와 다르며, 잘못된 정보가 포함되어 있습니다. 이는 정확성을 크게 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차원에서 양호하지만, 사실성과 정확성에서 큰 문제를 안고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 다르게 해석될 수 있는 부분이 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.7062638845431165</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능(일반학생전형) 모집에 대한 최신 성적 기준을 제공하겠습니다. 이 정보는 예시로 제시되며, 실제 입학 전형에서는 변동이 있을 수 있으므로 공식 홈페이지를 확인하시기 바랍니다.
+인공지능학과의 수능 일반학생전형에서 주요 성적 요소는 다음과 같습니다:
+1. **국어 + 수학(미적분/확률통계) + 영어**:
+   - 평균 점수: 450점 이상
+   - 표준 편차: 약 30점
+2. **과학영역 (물리, 화학, 생명과학 중 선택)**:
+   - 평균 등급: 3등급 이상
+3. **사회 영역**:
+   - 평균 등급: 4등급 이상
+4. **수능 표준점수**:
+   - 국어: 약 120점 이상
+   - 수학(미적분/확률통계): 약 135점 이상
+   - 영어: 약 115점 이상 (영어 등급 4등급)
+이러한 성적 기준을 충족하는 것이 중요합니다. 실제 지원 시에는 각 과목별로 더 세부적인 점수와 등급을 확인하시기 바랍니다.
+추가적으로, 동의대학교는 수능 성적뿐만 아니라 학생부 및 실기 등의 요소도 고려하므로, 전반적인 경쟁력을 높이기 위해 다양한 준비를 하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27의 성적이 충원 합격 가능성이 높다고 언급하고 있지만, 구체적인 학과에 대한 정보가 부족하여 정확한 사실을 반영하지 못하고 있다. 또한, 수능 점수의 확인 필요성을 언급하고 있어 다소 모호하다.
+2. Consistency Score (1-5): 3
+   - 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 특정 학과에 대한 충원 합격 가능성을 명확히 제시하지 않고 있어 일관성이 떨어진다. 원본 텍스트는 구체적인 학과 목록을 제공하고 있다.
+3. Relevance Score (1-5): 4
+   - 응답은 5.27의 성적에 대한 합격 가능성에 대해 논의하고 있으며, 관련된 정보를 제공하고 있지만, 원본 텍스트에서 제시된 구체적인 학과 목록과 비교할 때 다소 부족하다.
+4. Fluency Score (1-5): 4
+   - 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결된 내용을 가지고 있으며, 주제에 대한 일관된 흐름을 유지하고 있다. 그러나 원본 텍스트의 구체적인 정보와 비교할 때 다소 부족한 부분이 있다.
+6. Accuracy Score (1-5): 3
+   - 응답은 5.27의 성적이 높은 점수라고 언급하지만, 원본 텍스트에서 제공하는 구체적인 학과 정보와 비교할 때 정확성이 떨어진다. 특정 학과에 대한 정보가 부족하다.
+7. Multidimensional Quality Score (1-5): 3
+   - 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 구체적인 정보와 비교할 때 부족한 부분이 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공하고 있다. 그러나 일부 내용은 다소 복잡하게 느껴질 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.61385608605084</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 현재 제공된 정보로는 정확한 수능 점수인지 확인이 필요합니다. 일반적으로 한국 대학의 정시 모집에서는 수능 절대점과 표준점, 그리고 등급을 기준으로 합격 여부가 결정됩니다.
+다군(나군) 수능(일반학생전형)의 경우, 전형요소 반영비율이 100%로 되어 있어 수능 성적이 가장 중요한 평가 요인입니다. 하지만 정확한 학과와 모집단위에 따라 최저합격 점수가 다를 수 있습니다.
+다군(나군)의 경우, 수능성적 반영방법은 다음과 같습니다:
+- **수능 절대점**: 38페이지에서 확인할 수 있는 각 모집단위별로 정해진 점수입니다.
+- **수능 표준점**: 학생들의 성적이 대체적으로 어느 정도의 수준인지 나타내는 지표입니다.
+제공된 정보만으로는 특정 학과와 모집단위에 대한 최저합격 점수가 확인되지 않지만, 일반적으로 5.27이라는 점수는 상당히 높은 점수로 보입니다. 이 점수로는 대부분의 학과에서 합격 가능성이 높습니다.
+만약 특정 학과와 모집단위에 대한 최저합격 점수가 궁금하시다면, 해당 학과와 모집단위의 모집요강을 확인하거나 대학 입학처 웹사이트를 참조해 보시는 것이 좋습니다. 또한, 대입 전문가나 입학 상담원에게 문의하시는 것도 좋은 방법입니다.
+더 자세한 정보를 얻기 위해서는 다음과 같은 웹사이트를 참고하시거나 직접 대학에 문의하는 것을 추천드립니다: [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 제공하고 있으며, 4.2라는 점수가 중간적인 수준이라는 점도 언급하고 있습니다. 그러나 소프트웨어공학부의 평균 등급에 대한 구체적인 수치가 누락되어 있어 약간의 정보 부족이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부에 지원할 때 고려해야 할 여러 요소를 나열하고 있지만, 원본 텍스트에서 제공된 평균 등급과의 직접적인 비교가 부족하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 소프트웨어공학부에 지원하는 것과 관련된 다양한 요소를 다루고 있어 원본 텍스트의 주제와 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 요소를 체계적으로 나열하고 있지만, 각 요소 간의 연결이 다소 약해 보일 수 있습니다. 그러나 전반적으로 논리적인 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부에 대한 정보와 관련된 내용을 정확하게 전달하고 있지만, 원본 텍스트의 구체적인 수치와 비교할 때 약간의 정보가 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 세부 사항에서 더 명확한 설명이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.5154795970829624</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 중간적인 수준입니다. 하지만 소프트웨어공학부에 지원할 때 몇 가지 요소를 고려해야 합니다:
+1. **전형방법**: 동의대학교의 정시 모집에서는 학생부교과와 실기/실적 위주 전형이 있습니다. 소프트웨어공학부는 일반적으로 교과 성적이 중요한 역할을 합니다.
+2. **학생부 교과성적 반영**: 
+   - **전반적인 성적**: 4.2의 점수는 중간 이상입니다.
+   - **교과별 성적**: 국어, 수학, 영어 등 주요 과목에서 좋은 성적이 필요합니다.
+3. **면접 및 서류평가**:
+   - 면접에서는 학업역량과 전공적합성을 평가받습니다.
+   - 서류평가에서는 학생부 교과성적 외에도 창의적 체험활동, 진로계획 등이 중요합니다.
+4. **추천서 및 추천인**: 
+   - 선생님이나 다른 인물의 추천서도 중요한 역할을 합니다.
+   - 이는 학업역량과 전공적합성을 보완적으로 평가하는 데 도움이 됩니다.
+5. **추천한 과목**:
+   - 컴퓨터과학, 프로그래밍 등 관련 과목에서 좋은 성적이 필요합니다.
+6. **추천활동 및 경험**: 
+   - IT 관련 동아리 활동이나 프로젝트 참여 경험이 있다면 이점이 될 수 있습니다.
+따라서 4.2의 점수만으로는 확실한 합격을 보장할 수 없습니다. 하지만 적절히 준비하고 추천서를 받으면 좋은 결과를 얻을 수 있는 가능성은 있습니다.
+추가적으로, 동의대학교의 정시 모집에서는 학생부교과 성적이 중요한 요소이므로, 교과성적을 최대한 높이는 것이 중요합니다. 또한 면접 준비와 추천서 작성에도 신경 써야 합니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급에 대한 구체적인 정보를 제공하지 않고, 일반적인 입학 요건에 대한 설명을 포함하고 있습니다. 그러나 원본 텍스트에서 제공된 3.92의 성적이 평균 등급보다 높다는 사실을 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 화학환경공학부의 평균 등급에 대한 구체적인 언급이 없습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 입학 요건에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 3.92의 성적에 대한 직접적인 답변이 부족합니다. 따라서 관련성이 다소 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 논리적인 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 3.92의 성적이 화학환경공학부의 평균 등급보다 높은지에 대한 명확한 판단을 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 부족한 점이 많아 전반적인 품질이 낮습니다. 사실성, 일관성, 관련성 모두에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 입학 요건에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 의미적으로 적절함이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.5340948217743008</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>为了判断您能否通过东义大学化工环境工程学部的一般学生招生，我们需要考虑以下几个因素：
+1. **总成绩要求**：通常，化工环境工程学部的一般学生招生会有一定的最低分数要求。具体分数需要查看该专业的最新招生简章或咨询学校。
+2. **科目成绩**：
+   - 国语 (Korean) 和 数学 (Mathematics) 通常是必修的。
+   - 英语 (English) 也是必须的，但可能有特定的要求。
+   - 科目（Science）中的 化学、环境科学 等相关课程也需要达到一定的成绩。
+3. **综合评价**：除了科目成绩外，学校还会考虑学生的综合素质。例如：
+   - 学生的出勤记录
+   - 课外活动参与情况
+   - 社会实践经历等
+4. **具体分数要求**：根据您提供的信息（总分3.92），这个分数是否满足化工环境工程学部的一般学生招生的具体分数要求，需要进一步确认。通常情况下，3.92的综合成绩在大多数大学中是能够达到一般学生录取标准的。
+建议：
+- 查看东义大学化工环境工程学部最新发布的招生简章或官方网站上的具体分数要求。
+- 如果有疑问，可以直接联系学校招生办公室进行咨询。
+如果您能提供更多关于该专业的详细信息和最新的招生政策，我可以帮助您更准确地判断您的情况。</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부에 대한 정보가 아닌 화학공학과와 환경공학과에 대한 정보를 제공하고 있습니다. 원문에서 언급된 수능 일반학생전형에 대한 정보와는 관련이 없으며, 실기고사에 대한 언급도 원문에 포함되어 있지 않아 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 없습니다. 원문은 화학환경공학부의 수능 일반학생전형에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 실기고사에 대한 내용으로 전환되어 원문과 상충하는 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원문에서 질문한 내용과 관련이 적습니다. 원문은 수능 성적에 대한 합격 가능성을 묻고 있지만, 생성된 응답은 실기고사 준비에 대한 정보로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와 관련이 없기 때문에 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 연결이 부족하여 전체적인 일관성이 떨어집니다. 주제가 바뀌면서 논리적 흐름이 약해졌습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정보와 다르며, 화학공학과와 환경공학과에 대한 실기고사 요구 사항을 언급하고 있지만, 이는 원문에서 다루고 있는 내용이 아닙니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 원문과의 일치성이 낮고, 주제와 관련된 정보가 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과의 의미적 일치성이 부족합니다. 원문에서 요구하는 정보와는 다른 방향으로 나아가고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 주제와의 관련성이 떨어져서 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.602803048501786</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학공학과(화학공학과 - 교직 또는 환경공학과 - 교직)는 공학 계열로, 해당 학과는 실기고사를 요구하는 모집단위입니다. 따라서 수능만으로 입학하기 위해서는 실기고사에 합격해야 합니다.
+수능 성적 4.25는 일반학생전형에서 좋은 점수이지만, 화학공학과나 환경공학과는 실기고사를 요구하므로 실기고사 준비가 필요합니다. 실기고사는 해당 학과의 특성에 맞춰 준비해야 하며, 실기고사 성적도 함께 고려됩니다.
+따라서 수능 4.25로 화학공학과나 환경공학과를 정시 일반학생전형으로 지원하려면:
+1. **실기고사 준비**: 해당 학과의 실기고사를 준비해야 합니다.
+2. **실기고사 성적**: 실기고사에서 좋은 성적이 나와야 합니다.
+실제 입학 가능성을 판단하기 위해서는 해당 학과의 전형요소 반영비율, 동점자 처리 기준 등을 참고하시고, 학교에 문의하거나 추가 정보를 얻어보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 영화학과의 입학 전형에 대한 정보를 제공하고 있으며, 4.2라는 점수가 좋은 성적이라는 점도 언급하고 있습니다. 그러나 실기 평가의 중요성을 강조하면서도, 원본 텍스트에서 제공된 수치적 정보와 직접적으로 연결되지 않는 부분이 있어 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 실기 평가와 학생부 교과 성적의 중요성을 강조하면서 원본 텍스트의 수치적 정보와는 일관성이 떨어지는 부분이 있습니다. 특히, 전형 요소 반영 비율에 대한 정보는 원본 텍스트에 포함되어 있지 않아 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문자의 성적에 대한 합격 가능성을 평가하는 데 매우 관련성이 높습니다. 영화학과의 입학 전형에 대한 정보와 실기 평가의 중요성을 잘 설명하고 있어 주제와 잘 맞아떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 실기 평가와 학생부 성적에 대한 언급이 원본 텍스트의 정보와 연결되지 않아 약간의 일관성이 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확한 정보를 제공하고 있으나, 원본 텍스트의 수치적 정보와 직접적으로 연결되지 않는 부분이 있어 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 실기 평가와 학생부 성적에 대한 언급이 원본 텍스트의 정보와 연결되지 않아 약간의 의미적 부적절성이 존재합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 길어 가독성이 떨어질 수 있는 부분이 있어 완벽한 이해 가능성에는 미치지 못합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.6221094087421133</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 좋은 성적입니다만, 영화학과의 경우 실기 평가가 중요한 요소로 포함되므로 단순히 국어+수학+탐구 영역의 표준점수만으로 합격 여부를 판단하기는 어렵습니다.
+영화학과의 전형요소 반영비율을 확인해보면:
+- 나군 수능(일반학생전형) / 디자인조형학과, 체육학과 / { 30% / 70% / }
+이는 실기/실적 평가가 70%의 비중을 차지한다는 것을 의미합니다. 따라서 실기 평가에서 좋은 성적을 받는 것이 중요합니다.
+또한, 동점자 처리 기준을 확인해보면:
+- 학생부 교과성적 반영방법(학생부교과, 실기/실적 위주전형) / 진로선택과목 성적반영 A: 2등급 B: 4등급 C:6등급 / 진로선택과목 성적반영 수 A: 1등급 B: 3등급 C:5등급 /
+이를 통해 학생부 교과성적이 좋은 경우에도 동점자 처리에서 유리하게 평가받을 수 있습니다.
+결론적으로, 4.2라는 점수는 좋은 성적입니다만, 실기 평가와 학생부 교과성적도 함께 고려해야 합니다. 영화학과의 실기 평가 기준을 잘 준비하고, 학생부 교과성적이 좋다면 합격 가능성은 높아질 것입니다.
+추가적으로, 동의대학교 입학 홈페이지를 통해 최종 합격자 발표와 등록금 납부 일정 등을 확인하시고, 필요하다면 입학처에 문의하여 자세한 정보를 얻으시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접 절차를 중국어로 번역한 내용이지만, 원본 텍스트의 내용과는 다소 차이가 있습니다. 특히, "기타 질의응답" 부분이 원본과 정확히 일치하지 않으며, 추가적인 정보가 포함되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본의 절차를 충실히 반영하지 못하고, 번역 과정에서 일부 내용이 변형되었습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 정보를 제공하고 있으므로 관련성이 높습니다. 그러나 원본 텍스트와의 차이로 인해 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 중국어로 작성되어 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 나열되어 있습니다. 그러나 원본과의 차이로 인해 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 내용을 반영하지 않으며, 일부 정보가 왜곡되었습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 유창성과 관련성에서는 긍정적이지만, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질 점수는 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본의 의미를 전달하려고 했지만, 일부 내용이 변형되어 원본의 의도와 다르게 해석될 수 있습니다. 따라서 의미 적합성 점수는 중간입니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.4203394373804661</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>以下是翻译结果：
+面试流程如下：
+1. 进入候考室
+2. 身份确认
+3. 移动到考场外
+4. 进入考场
+5. 发表个人动机和学业计划
+6. 讨论学业能力和专业适应性相关的一般问题并回答提问
+7. 其他问答（提交文件的真实性验证等）
+8. 离场
+请注意，这个流程适用于所有类型的面试。如果有任何疑问，请访问“https://ipsi.deu.ac.kr/main.do”。</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
